--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="583">
   <si>
     <t>nr</t>
   </si>
@@ -435,9 +435,6 @@
     <t>nej</t>
   </si>
   <si>
-    <t>Intjänande till inkomstpension, SF0302 officiell statistik</t>
-  </si>
-  <si>
     <t>Intjänandet till pensionerna kan mätas på olika sätt beroende på vilket mått man väljer att använda. I denna statistik redovisas tre mått för intjänandet till inkomstpension. Genomsnittligt pensionsunderlag, genomsnittlig penisonsrätt och genomsnittlig pensionsbehållnig. Fördelning efter kön och åldersgrupp.</t>
   </si>
   <si>
@@ -453,9 +450,6 @@
     <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/intj%C3%A4nande/antal-personer-med-pensionsbeh%C3%A5llning/Intj%C3%A4nande%20till%20inkomstpension%202004-2008,%20SF0302_02.xlsx</t>
   </si>
   <si>
-    <t>Utbetalning årsstatistik från 2003</t>
-  </si>
-  <si>
     <t>Statistiken redovisar ålderspensioner i det nuvarande pensionssystemet. Antal pensionstagare, pensioner och utbetalat belopp respektive år. Fördelning på kön.</t>
   </si>
   <si>
@@ -565,13 +559,1222 @@
   </si>
   <si>
     <t>2009-2016</t>
+  </si>
+  <si>
+    <t>Intjänande till inkomstpension, Antal med pensionsrätt, genomsnittligt pensionsunderlag och genomsnittligt pensionsrätt.</t>
+  </si>
+  <si>
+    <t>Intjänande till inkomstpension, Antal med pensionsbehållning och genomsnittlig pensionsbehållning.</t>
+  </si>
+  <si>
+    <t>Utbetalning årsstatistik från 2003 Antal pensionärer i december</t>
+  </si>
+  <si>
+    <t>Utbetalning årsstatistik från 2003 Antal pensionstagare med ålderspension / äldreförsörjningsstöd i december med fördelning efter ålder och omfattning</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds29</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds30</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds31</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds32</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds33</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds34</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds35</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds36</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds37</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds38</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds39</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds40</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds41</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds42</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist29</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist30</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist31</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist32</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist33</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist34</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist35</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist36</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist37</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist38</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist39</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist40</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist41</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist42</t>
+  </si>
+  <si>
+    <t>_n48</t>
+  </si>
+  <si>
+    <t>_n49</t>
+  </si>
+  <si>
+    <t>_n50</t>
+  </si>
+  <si>
+    <t>_n51</t>
+  </si>
+  <si>
+    <t>_n52</t>
+  </si>
+  <si>
+    <t>_n53</t>
+  </si>
+  <si>
+    <t>_n54</t>
+  </si>
+  <si>
+    <t>_n55</t>
+  </si>
+  <si>
+    <t>_n56</t>
+  </si>
+  <si>
+    <t>_n57</t>
+  </si>
+  <si>
+    <t>_n58</t>
+  </si>
+  <si>
+    <t>_n59</t>
+  </si>
+  <si>
+    <t>_n60</t>
+  </si>
+  <si>
+    <t>_n61</t>
+  </si>
+  <si>
+    <t>Antal pensionstagare med ålderspension / äldreförsörjningsstöd i december med fördelning efter ålder och omfattning 2015</t>
+  </si>
+  <si>
+    <t>Antal pensionstagare med ålderspension / äldreförsörjningsstöd i december med fördelning efter ålder och omfattning 2014</t>
+  </si>
+  <si>
+    <t>Antal pensionstagare med ålderspension / äldreförsörjningsstöd i december med fördelning efter ålder och omfattning 2013</t>
+  </si>
+  <si>
+    <t>Antal pensionstagare med ålderspension / äldreförsörjningsstöd i december med fördelning efter ålder och omfattning 2012</t>
+  </si>
+  <si>
+    <t>Antal pensionstagare med ålderspension / äldreförsörjningsstöd i december med fördelning efter ålder och omfattning 2011</t>
+  </si>
+  <si>
+    <t>Antal pensionstagare med ålderspension / äldreförsörjningsstöd i december med fördelning efter ålder och omfattning 2010</t>
+  </si>
+  <si>
+    <t>Antal pensionstagare med ålderspension / äldreförsörjningsstöd i december med fördelning efter ålder och omfattning 2009</t>
+  </si>
+  <si>
+    <t>Antal pensionstagare med ålderspension / äldreförsörjningsstöd i december med fördelning efter ålder och omfattning 2008</t>
+  </si>
+  <si>
+    <t>Antal pensionstagare med ålderspension / äldreförsörjningsstöd i december med fördelning efter ålder och omfattning 2007</t>
+  </si>
+  <si>
+    <t>Antal pensionstagare med ålderspension / äldreförsörjningsstöd i december med fördelning efter ålder och omfattning 2006</t>
+  </si>
+  <si>
+    <t>Antal pensionstagare med ålderspension / äldreförsörjningsstöd i december med fördelning efter ålder och omfattning 2005</t>
+  </si>
+  <si>
+    <t>Antal pensionstagare med ålderspension / äldreförsörjningsstöd i december med fördelning efter ålder och omfattning 2004</t>
+  </si>
+  <si>
+    <t>Antal pensionstagare med ålderspension / äldreförsörjningsstöd i december med fördelning efter ålder och omfattning 2003</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/pensionstagare-med-%C3%A5p-och-%C3%A4fs/SF0301-8_Pensionstagare_2015p.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/pensionstagare-med-%C3%A5p-och-%C3%A4fs/b02201_2014.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/pensionstagare-med-%C3%A5p-och-%C3%A4fs/b02201_2013.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/pensionstagare-med-%C3%A5p-och-%C3%A4fs/b02201_2012.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/pensionstagare-med-%C3%A5p-och-%C3%A4fs/b02201_2011.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/pensionstagare-med-%C3%A5p-och-%C3%A4fs/b02201_2010.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/pensionstagare-med-%C3%A5p-och-%C3%A4fs/b02201_2009.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/pensionstagare-med-%C3%A5p-och-%C3%A4fs/b02201_2008.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/pensionstagare-med-%C3%A5p-och-%C3%A4fs/b0220_2007.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/pensionstagare-med-%C3%A5p-och-%C3%A4fs/b0220_2006.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/pensionstagare-med-%C3%A5p-och-%C3%A4fs/2005_b0220.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/pensionstagare-med-%C3%A5p-och-%C3%A4fs/2004_b0220.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/pensionstagare-med-%C3%A5p-och-%C3%A4fs/2003_b0220.xls</t>
+  </si>
+  <si>
+    <t>Utbetalning årsstatistik från 2003 Pensionstagare, årsbelopp, medelårsbelopp, kön och län</t>
+  </si>
+  <si>
+    <t>Utbetalning årsstatistik från 2003 Allmän pension, Årsbelopp. Kön, uttagsandel och typ av pension</t>
+  </si>
+  <si>
+    <t>Utbetalning årsstatistik från 2003 Allmän pension. Tabell 03 Antal pensionärer. Regelverk, kön och typ av pension</t>
+  </si>
+  <si>
+    <t>Utbetalning årsstatistik från 2003 Allmän pension. Antal pensionärer. Kön, åldersgrupp, typ av pension</t>
+  </si>
+  <si>
+    <t>Utbetalning årsstatistik från 2003 Allmän pension. Årsbelopp. Kön, åldersgrupp och typ av pension</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds43</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist43</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds44</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist44</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds45</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist45</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds46</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist46</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds47</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist47</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds48</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist48</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds49</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist49</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds50</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist50</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds51</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist51</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds52</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist52</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds53</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist53</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds54</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist54</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds55</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist55</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds56</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist56</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds57</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist57</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds58</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist58</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds59</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist59</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds60</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist60</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds61</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist61</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds62</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist62</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds63</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist63</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds64</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist64</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds65</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist65</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds66</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist66</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds67</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist67</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds68</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist68</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds69</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist69</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds70</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist70</t>
+  </si>
+  <si>
+    <t>_n62</t>
+  </si>
+  <si>
+    <t>_n63</t>
+  </si>
+  <si>
+    <t>_n64</t>
+  </si>
+  <si>
+    <t>_n65</t>
+  </si>
+  <si>
+    <t>_n66</t>
+  </si>
+  <si>
+    <t>_n67</t>
+  </si>
+  <si>
+    <t>_n68</t>
+  </si>
+  <si>
+    <t>_n69</t>
+  </si>
+  <si>
+    <t>_n70</t>
+  </si>
+  <si>
+    <t>_n71</t>
+  </si>
+  <si>
+    <t>_n72</t>
+  </si>
+  <si>
+    <t>_n73</t>
+  </si>
+  <si>
+    <t>_n74</t>
+  </si>
+  <si>
+    <t>_n75</t>
+  </si>
+  <si>
+    <t>_n76</t>
+  </si>
+  <si>
+    <t>_n77</t>
+  </si>
+  <si>
+    <t>_n78</t>
+  </si>
+  <si>
+    <t>_n79</t>
+  </si>
+  <si>
+    <t>_n80</t>
+  </si>
+  <si>
+    <t>_n81</t>
+  </si>
+  <si>
+    <t>_n82</t>
+  </si>
+  <si>
+    <t>_n83</t>
+  </si>
+  <si>
+    <t>_n84</t>
+  </si>
+  <si>
+    <t>_n85</t>
+  </si>
+  <si>
+    <t>_n86</t>
+  </si>
+  <si>
+    <t>_n87</t>
+  </si>
+  <si>
+    <t>_n88</t>
+  </si>
+  <si>
+    <t>_n89</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/pensionstagare,-%C3%A5rsbelopp,-medel%C3%A5rsbelopp/b01900_2014.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/pensionstagare,-%C3%A5rsbelopp,-medel%C3%A5rsbelopp/b01900_2013.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/pensionstagare,-%C3%A5rsbelopp,-medel%C3%A5rsbelopp/b01900_2012.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/pensionstagare,-%C3%A5rsbelopp,-medel%C3%A5rsbelopp/b01900_2011.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/pensionstagare,-%C3%A5rsbelopp,-medel%C3%A5rsbelopp/b01900-2010.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/pensionstagare,-%C3%A5rsbelopp,-medel%C3%A5rsbelopp/b0190-2009.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/pensionstagare,-%C3%A5rsbelopp,-medel%C3%A5rsbelopp/b0190-2008.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/pensionstagare,-%C3%A5rsbelopp,-medel%C3%A5rsbelopp/b0190-2007.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/pensionstagare,-%C3%A5rsbelopp,-medel%C3%A5rsbelopp/b0190-2006.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/pensionstagare,-%C3%A5rsbelopp,-medel%C3%A5rsbelopp/b0190-2005.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/pensionstagare,-%C3%A5rsbelopp,-medel%C3%A5rsbelopp/b0190-2004.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/pensionstagare,-%C3%A5rsbelopp,-medel%C3%A5rsbelopp/b0190-2003.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/utbetald-%C3%A5lderspension--%C3%A4ldref%C3%B6rs%C3%B6rjningsst%C3%B6d/SF0301_02.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/utbetald-%C3%A5lderspension--%C3%A4ldref%C3%B6rs%C3%B6rjningsst%C3%B6d/SF0301-9_Utbetald_pension2015p.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/utbetald-%C3%A5lderspension--%C3%A4ldref%C3%B6rs%C3%B6rjningsst%C3%B6d/b02102_2014.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/utbetald-%C3%A5lderspension--%C3%A4ldref%C3%B6rs%C3%B6rjningsst%C3%B6d/b02102_2013.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/utbetald-%C3%A5lderspension--%C3%A4ldref%C3%B6rs%C3%B6rjningsst%C3%B6d/b02102_2012.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/utbetald-%C3%A5lderspension--%C3%A4ldref%C3%B6rs%C3%B6rjningsst%C3%B6d/b02102_2011.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/utbetald-%C3%A5lderspension--%C3%A4ldref%C3%B6rs%C3%B6rjningsst%C3%B6d/b02102_2010.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/utbetald-%C3%A5lderspension--%C3%A4ldref%C3%B6rs%C3%B6rjningsst%C3%B6d/b02102_2009.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/utbetald-%C3%A5lderspension--%C3%A4ldref%C3%B6rs%C3%B6rjningsst%C3%B6d/b02102_2008.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/utbetald-%C3%A5lderspension--%C3%A4ldref%C3%B6rs%C3%B6rjningsst%C3%B6d/b02102_2007.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/utbetald-%C3%A5lderspension--%C3%A4ldref%C3%B6rs%C3%B6rjningsst%C3%B6d/b02102_2006.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/utbetald-%C3%A5lderspension--%C3%A4ldref%C3%B6rs%C3%B6rjningsst%C3%B6d/2005_b02102.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/utbetald-%C3%A5lderspension--%C3%A4ldref%C3%B6rs%C3%B6rjningsst%C3%B6d/2004_b02102.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/utbetald-%C3%A5lderspension--%C3%A4ldref%C3%B6rs%C3%B6rjningsst%C3%B6d/2003_b02102.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/allm%C3%A4n-pension--tabell-03-antal-pension%C3%A4rer--regelverk,-k%C3%B6n-och-typ-av-pension/SF0301_03.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/allm%C3%A4n-pension--tabell-04---k%C3%B6n,-%C3%A5ldersgrupp-och-typ-av-pension/SF0301_04.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-fr%C3%A5n-2003/allm%C3%A4n-pension--tabell-05---%C3%A5rsbelopp--k%C3%B6n,-%C3%A5ldersgrupp-och-typ-av-pension/SF0301_05.xlsx</t>
+  </si>
+  <si>
+    <t>Pensionstagare, årsbelopp, medelårsbelopp, kön och län 2014</t>
+  </si>
+  <si>
+    <t>Pensionstagare, årsbelopp, medelårsbelopp, kön och län 2013</t>
+  </si>
+  <si>
+    <t>Pensionstagare, årsbelopp, medelårsbelopp, kön och län 2012</t>
+  </si>
+  <si>
+    <t>Pensionstagare, årsbelopp, medelårsbelopp, kön och län 2011</t>
+  </si>
+  <si>
+    <t>Pensionstagare, årsbelopp, medelårsbelopp, kön och län 2010</t>
+  </si>
+  <si>
+    <t>Pensionstagare, årsbelopp, medelårsbelopp, kön och län 2009</t>
+  </si>
+  <si>
+    <t>Pensionstagare, årsbelopp, medelårsbelopp, kön och län 2008</t>
+  </si>
+  <si>
+    <t>Pensionstagare, årsbelopp, medelårsbelopp, kön och län 2007</t>
+  </si>
+  <si>
+    <t>Pensionstagare, årsbelopp, medelårsbelopp, kön och län 2006</t>
+  </si>
+  <si>
+    <t>Pensionstagare, årsbelopp, medelårsbelopp, kön och län 2005</t>
+  </si>
+  <si>
+    <t>Pensionstagare, årsbelopp, medelårsbelopp, kön och län 2004</t>
+  </si>
+  <si>
+    <t>Pensionstagare, årsbelopp, medelårsbelopp, kön och län 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allmän pension, Årsbelopp. Kön, uttagsandel och typ av pension 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allmän pension, Årsbelopp. Kön, uttagsandel och typ av pension 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allmän pension, Årsbelopp. Kön, uttagsandel och typ av pension 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allmän pension, Årsbelopp. Kön, uttagsandel och typ av pension 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allmän pension, Årsbelopp. Kön, uttagsandel och typ av pension 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allmän pension, Årsbelopp. Kön, uttagsandel och typ av pension 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allmän pension, Årsbelopp. Kön, uttagsandel och typ av pension 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allmän pension, Årsbelopp. Kön, uttagsandel och typ av pension 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allmän pension, Årsbelopp. Kön, uttagsandel och typ av pension 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allmän pension, Årsbelopp. Kön, uttagsandel och typ av pension 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allmän pension, Årsbelopp. Kön, uttagsandel och typ av pension 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allmän pension, Årsbelopp. Kön, uttagsandel och typ av pension 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allmän pension, Årsbelopp. Kön, uttagsandel och typ av pension 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allmän pension, Årsbelopp. Kön, uttagsandel och typ av pension 2003</t>
+  </si>
+  <si>
+    <t>Statistiken redovisar ålderspensioner i det tidigare pensionssystemet. Antal pensionstagare, pensioner och utbetalat belopp respektive år. Fördelning efter kön.</t>
+  </si>
+  <si>
+    <t>Utbetalning årsstatistik till 2002 Antal pensioner och pensionstagare med folkpension och tilläggspension i december</t>
+  </si>
+  <si>
+    <t>Utbetalning årsstatistik till 2002 Antal pensionstagare med ålderspension i december</t>
+  </si>
+  <si>
+    <t>Utbetalning årsstatistik till 2002 Antal pensionstagare med ålderspension i december med fördelning efter ålder och omfattning</t>
+  </si>
+  <si>
+    <t>Utbetalning årsstatistik till 2002 Utbetald folkpension och tilläggspension i december. Årsbelopp i 1000-tal kronor</t>
+  </si>
+  <si>
+    <t>Utbetalning årsstatistik till 2002 Utbetald ålderspension i december. Årsbelopp i 1000-tal kronor</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds71</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist71</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds72</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist72</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds73</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist73</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds74</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist74</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds75</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist75</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds76</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist76</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds77</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist77</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds78</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist78</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds79</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist79</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds80</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist80</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds81</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist81</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds82</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist82</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds83</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist83</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds84</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist84</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds85</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist85</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds86</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist86</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds87</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist87</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds88</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist88</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds89</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist89</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds90</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist90</t>
+  </si>
+  <si>
+    <t>_n90</t>
+  </si>
+  <si>
+    <t>_n91</t>
+  </si>
+  <si>
+    <t>_n92</t>
+  </si>
+  <si>
+    <t>_n93</t>
+  </si>
+  <si>
+    <t>_n94</t>
+  </si>
+  <si>
+    <t>_n95</t>
+  </si>
+  <si>
+    <t>_n96</t>
+  </si>
+  <si>
+    <t>_n97</t>
+  </si>
+  <si>
+    <t>_n98</t>
+  </si>
+  <si>
+    <t>_n99</t>
+  </si>
+  <si>
+    <t>_n100</t>
+  </si>
+  <si>
+    <t>_n101</t>
+  </si>
+  <si>
+    <t>_n102</t>
+  </si>
+  <si>
+    <t>_n103</t>
+  </si>
+  <si>
+    <t>_n104</t>
+  </si>
+  <si>
+    <t>_n105</t>
+  </si>
+  <si>
+    <t>_n106</t>
+  </si>
+  <si>
+    <t>_n107</t>
+  </si>
+  <si>
+    <t>_n108</t>
+  </si>
+  <si>
+    <t>_n109</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Antal pensioner och pensionstagare med folkpension och tilläggspension i december 2002</t>
+  </si>
+  <si>
+    <t>Antal pensionstagare med ålderspension i december 2002</t>
+  </si>
+  <si>
+    <t>Antal pensionstagare med ålderspension i december 2001</t>
+  </si>
+  <si>
+    <t>Antal pensionstagare med ålderspension i december 2000</t>
+  </si>
+  <si>
+    <t>Antal pensionstagare med ålderspension i december 1999</t>
+  </si>
+  <si>
+    <t>Antal pensionstagare med ålderspension i december med fördelning efter ålder och omfattning 2002</t>
+  </si>
+  <si>
+    <t>Antal pensionstagare med ålderspension i december med fördelning efter ålder och omfattning 2001</t>
+  </si>
+  <si>
+    <t>Antal pensionstagare med ålderspension i december med fördelning efter ålder och omfattning 2000</t>
+  </si>
+  <si>
+    <t>Antal pensionstagare med ålderspension i december med fördelning efter ålder och omfattning 1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Antal pensioner och pensionstagare med folkpension och tilläggspension i december 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Antal pensioner och pensionstagare med folkpension och tilläggspension i december 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Antal pensioner och pensionstagare med folkpension och tilläggspension i december 1999</t>
+  </si>
+  <si>
+    <t>Utbetald folkpension och tilläggspension i december. Årsbelopp i 1000-tal kronor 2002</t>
+  </si>
+  <si>
+    <t>Utbetald folkpension och tilläggspension i december. Årsbelopp i 1000-tal kronor 2001</t>
+  </si>
+  <si>
+    <t>Utbetald folkpension och tilläggspension i december. Årsbelopp i 1000-tal kronor 2000</t>
+  </si>
+  <si>
+    <t>Utbetald folkpension och tilläggspension i december. Årsbelopp i 1000-tal kronor 1999</t>
+  </si>
+  <si>
+    <t>Utbetald ålderspension i december. Årsbelopp i 1000-tal kronor 2001</t>
+  </si>
+  <si>
+    <t>Utbetald ålderspension i december. Årsbelopp i 1000-tal kronor 2000</t>
+  </si>
+  <si>
+    <t>Utbetald ålderspension i december. Årsbelopp i 1000-tal kronor 1999</t>
+  </si>
+  <si>
+    <t>Utbetald ålderspension i december. Årsbelopp i 1000-tal kronor 2002</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-till-2002/pensioner-och-pensionstagare-med-fp-och-tp/O_ant_pens_2002.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-till-2002/pensioner-och-pensionstagare-med-fp-och-tp/O_ant_pens_2001.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-till-2002/pensioner-och-pensionstagare-med-fp-och-tp/O_ant_pens_2000.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-till-2002/pensioner-och-pensionstagare-med-fp-och-tp/O_ant_pens_1999.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-till-2002/pensionstagare-med-%C3%A5lderspension/A_antal_2002.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-till-2002/pensionstagare-med-%C3%A5lderspension/A_antal_2001.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-till-2002/pensionstagare-med-%C3%A5lderspension/A_antal_2000.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-till-2002/pensionstagare-med-%C3%A5lderspension/A_antal_1999.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-till-2002/pensionstagare-med-%C3%A5lderspension-i-december-med-f%C3%B6rdelning-efter-%C3%A5lder-och-omfattning/A_aldersfor_2002.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-till-2002/pensionstagare-med-%C3%A5lderspension-i-december-med-f%C3%B6rdelning-efter-%C3%A5lder-och-omfattning/A_aldersfor_2001.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-till-2002/pensionstagare-med-%C3%A5lderspension-i-december-med-f%C3%B6rdelning-efter-%C3%A5lder-och-omfattning/A_aldersfor_2000.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-till-2002/pensionstagare-med-%C3%A5lderspension-i-december-med-f%C3%B6rdelning-efter-%C3%A5lder-och-omfattning/A_aldersfor_1999.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-till-2002/utbetald-folkpension-och-till%C3%A4ggspension-i-december/O_utbet_2002.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-till-2002/utbetald-folkpension-och-till%C3%A4ggspension-i-december/O_utbet_2001.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-till-2002/utbetald-folkpension-och-till%C3%A4ggspension-i-december/O_utbet_2000.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-till-2002/utbetald-folkpension-och-till%C3%A4ggspension-i-december/O_utbet_1999.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-till-2002/utbetald-%C3%A5lderspension-i-decemberr/A_utbet_2002.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-till-2002/utbetald-%C3%A5lderspension-i-decemberr/A_utbet_2001.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-till-2002/utbetald-%C3%A5lderspension-i-decemberr/A_utbet_2000.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/%C3%A5lderspension/utbetalning-%C3%A5rsstatistik-till-2002/utbetald-%C3%A5lderspension-i-decemberr/A_utbet_1999.xls</t>
+  </si>
+  <si>
+    <t>Statistiken belyser pensionssparande inom premiepensionssystemet, den 31 december.</t>
+  </si>
+  <si>
+    <t>Premiepensionssparande</t>
+  </si>
+  <si>
+    <t>Premiepensionssparande. Nuvarande och tidigare fonder</t>
+  </si>
+  <si>
+    <t>Lista med alla fonder som finns i Pensionsmyndighetens fondutbud och även alla som funnits i Premiepensionsmyndighetens utbud.</t>
+  </si>
+  <si>
+    <t>Här finner du en lista med värdeutvecklingen per fond för de senaste två åren och innevarande år samt genomsnittlig värdeutveckling för de senaste fem åren.</t>
+  </si>
+  <si>
+    <t>Premiepensionssparande. Värdeutveckling, risk och avgift</t>
+  </si>
+  <si>
+    <t>Premiepensionssparande. Senaste köp och säljkurserna</t>
+  </si>
+  <si>
+    <t>Premiepensionssparande. Utdelningar</t>
+  </si>
+  <si>
+    <t>Förutom att hitta fondernas köp- och säljkurser på respektive fondfaktasida (du hittar fondfaktasidorna under Sök fonder) kan du även se dem här sammanfattade i listformat.</t>
+  </si>
+  <si>
+    <t>En utdelning innebär att en del av en fonds värde delas ut till andelsägarna i fonden. Fonder ger normalt utdelning en gång per år,  antingen som nya andelar eller som kontant utbetalning.</t>
+  </si>
+  <si>
+    <t>Premiepensionssparande. Historiska fondkurser</t>
+  </si>
+  <si>
+    <t>Här hittar du listor för fondkurser tidigare år med början 2000.</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds91</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist91</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds92</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist92</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds93</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist93</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds94</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist94</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds95</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist95</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds96</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist96</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds97</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist97</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds98</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist98</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds99</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist99</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds100</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist100</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds101</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist101</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds102</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist102</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds103</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist103</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds104</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist104</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds105</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist105</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#ds106</t>
+  </si>
+  <si>
+    <t>http://pensionsmyndigheten.se/datasets/dcat#dist106</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/statistik-och-rapporter/statistik/statistik-for-premiepension#1</t>
+  </si>
+  <si>
+    <t>_n110</t>
+  </si>
+  <si>
+    <t>_n111</t>
+  </si>
+  <si>
+    <t>_n112</t>
+  </si>
+  <si>
+    <t>_n113</t>
+  </si>
+  <si>
+    <t>_n114</t>
+  </si>
+  <si>
+    <t>_n115</t>
+  </si>
+  <si>
+    <t>_n116</t>
+  </si>
+  <si>
+    <t>_n117</t>
+  </si>
+  <si>
+    <t>_n118</t>
+  </si>
+  <si>
+    <t>_n119</t>
+  </si>
+  <si>
+    <t>_n120</t>
+  </si>
+  <si>
+    <t>_n121</t>
+  </si>
+  <si>
+    <t>_n122</t>
+  </si>
+  <si>
+    <t>_n123</t>
+  </si>
+  <si>
+    <t>_n124</t>
+  </si>
+  <si>
+    <t>_n125</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/premiepension/premiepensionssparande/SF0303_2016.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/premiepension/premiepensionssparande/SOS_SF0303_2015.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/premiepension/premiepensionssparande/SOS_2014.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/premiepension/premiepensionssparande/SOS_2013.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/premiepension/premiepensionssparande/SOS_2012.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/premiepension/premiepensionssparande/SOS_2011.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/premiepension/premiepensionssparande/SOS_2010.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/premiepension/premiepensionssparande/SOS_2009.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/premiepension/fonddata/nuvarande-och-tidigare-fonder/Lista%20alla%20fonder%20.xls</t>
+  </si>
+  <si>
+    <t>https://secure.pensionsmyndigheten.se/fundfact/fonddata.txt</t>
+  </si>
+  <si>
+    <t>https://secure.pensionsmyndigheten.se/fundfact/fonddata.csv</t>
+  </si>
+  <si>
+    <t>.txt</t>
+  </si>
+  <si>
+    <t>.csv</t>
+  </si>
+  <si>
+    <t>https://secure.pensionsmyndigheten.se/fundfact/kurser.csv</t>
+  </si>
+  <si>
+    <t>https://secure.pensionsmyndigheten.se/fundfact/kurser.txt</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/premiepension/fonddata/utdelningar/Utdelningar%202006-2017.xls</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/premiepension/fonddata/historiska-fondkurser/Fondandelskurser%20%202017.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/content/dam/pensionsmyndigheten/blanketter---broschyrer---faktablad/statistik/premiepension/fonddata/historiska-fondkurser/Fondandelskurser%20%202016%20.xlsx</t>
+  </si>
+  <si>
+    <t>Fondkurser 2017</t>
+  </si>
+  <si>
+    <t>Fondkurser 2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,6 +1905,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1004,7 +2215,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1047,12 +2258,15 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20 % - Dekorfärg1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Dekorfärg2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Dekorfärg3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1082,6 +2296,7 @@
     <cellStyle name="Dekorfärg6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Dålig" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Förklarande text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Hyperlänk" xfId="42" builtinId="8"/>
     <cellStyle name="Indata" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Kontrollcell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Länkad cell" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -1114,8 +2329,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabell1" displayName="Tabell1" ref="A1:Q35" totalsRowShown="0">
-  <autoFilter ref="A1:Q35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabell1" displayName="Tabell1" ref="A1:Q107" totalsRowShown="0">
+  <autoFilter ref="A1:Q107"/>
   <tableColumns count="17">
     <tableColumn id="1" name="nr"/>
     <tableColumn id="16" name="periodiserad"/>
@@ -1404,25 +2619,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="M115" sqref="M115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="62.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="46.42578125" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="94.85546875" customWidth="1"/>
+    <col min="4" max="4" width="154.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="94.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="130.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="37.42578125" customWidth="1"/>
+    <col min="13" max="13" width="84.7109375" customWidth="1"/>
     <col min="14" max="14" width="29" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
     <col min="16" max="16" width="14.42578125" customWidth="1"/>
@@ -1464,7 +2679,7 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M1" t="s">
         <v>134</v>
@@ -1517,7 +2732,7 @@
         <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M2" t="str">
         <f>Tabell1[[#This Row],[forklaring]]</f>
@@ -1571,7 +2786,7 @@
         <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M3" t="str">
         <f>Tabell1[[#This Row],[forklaring]]</f>
@@ -1622,7 +2837,7 @@
         <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M4" t="str">
         <f>Tabell1[[#This Row],[forklaring]]</f>
@@ -1673,7 +2888,7 @@
         <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M5" t="str">
         <f>Tabell1[[#This Row],[forklaring]]</f>
@@ -1724,7 +2939,7 @@
         <v>32</v>
       </c>
       <c r="L6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M6" t="str">
         <f>Tabell1[[#This Row],[forklaring]]</f>
@@ -1775,7 +2990,7 @@
         <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M7" t="str">
         <f>Tabell1[[#This Row],[forklaring]]</f>
@@ -1826,7 +3041,7 @@
         <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M8" t="str">
         <f>Tabell1[[#This Row],[forklaring]]</f>
@@ -1877,7 +3092,7 @@
         <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M9" t="str">
         <f>Tabell1[[#This Row],[forklaring]]</f>
@@ -1928,7 +3143,7 @@
         <v>36</v>
       </c>
       <c r="L10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M10" t="str">
         <f>Tabell1[[#This Row],[forklaring]]</f>
@@ -1979,7 +3194,7 @@
         <v>37</v>
       </c>
       <c r="L11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M11" t="str">
         <f>Tabell1[[#This Row],[forklaring]]</f>
@@ -2006,10 +3221,10 @@
         <v>136</v>
       </c>
       <c r="C12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" t="s">
         <v>138</v>
-      </c>
-      <c r="D12" t="s">
-        <v>139</v>
       </c>
       <c r="E12" s="1">
         <v>42736</v>
@@ -2021,22 +3236,22 @@
         <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="J12" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="K12" t="s">
         <v>38</v>
       </c>
       <c r="L12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O12" t="s">
         <v>22</v>
@@ -2056,10 +3271,10 @@
         <v>136</v>
       </c>
       <c r="C13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" t="s">
         <v>138</v>
-      </c>
-      <c r="D13" t="s">
-        <v>139</v>
       </c>
       <c r="E13" s="1">
         <v>42736</v>
@@ -2071,22 +3286,22 @@
         <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="K13" t="s">
         <v>39</v>
       </c>
       <c r="L13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O13" t="s">
         <v>22</v>
@@ -2100,16 +3315,16 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>136</v>
       </c>
       <c r="C14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" t="s">
         <v>138</v>
-      </c>
-      <c r="D14" t="s">
-        <v>139</v>
       </c>
       <c r="E14" s="1">
         <v>42736</v>
@@ -2121,22 +3336,22 @@
         <v>75</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="J14" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="K14" t="s">
         <v>40</v>
       </c>
       <c r="L14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
         <v>22</v>
@@ -2150,16 +3365,16 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>136</v>
       </c>
       <c r="C15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" t="s">
         <v>138</v>
-      </c>
-      <c r="D15" t="s">
-        <v>139</v>
       </c>
       <c r="E15" s="1">
         <v>42736</v>
@@ -2171,22 +3386,22 @@
         <v>76</v>
       </c>
       <c r="I15" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="K15" t="s">
         <v>41</v>
       </c>
       <c r="L15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O15" t="s">
         <v>22</v>
@@ -2200,16 +3415,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E16" s="1">
         <v>42736</v>
@@ -2221,10 +3436,10 @@
         <v>77</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="J16" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="K16" t="s">
         <v>42</v>
@@ -2233,7 +3448,7 @@
         <v>2016</v>
       </c>
       <c r="M16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N16" t="s">
         <v>29</v>
@@ -2250,16 +3465,16 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E17" s="1">
         <v>42370</v>
@@ -2271,10 +3486,10 @@
         <v>78</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="J17" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="K17" t="s">
         <v>43</v>
@@ -2283,10 +3498,10 @@
         <v>2015</v>
       </c>
       <c r="M17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O17" t="s">
         <v>22</v>
@@ -2300,16 +3515,16 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E18" s="1">
         <v>42005</v>
@@ -2321,10 +3536,10 @@
         <v>79</v>
       </c>
       <c r="I18" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="J18" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="K18" t="s">
         <v>44</v>
@@ -2333,13 +3548,13 @@
         <v>2014</v>
       </c>
       <c r="M18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P18" s="1">
         <v>41640</v>
@@ -2350,16 +3565,16 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>136</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E19" s="1">
         <v>41640</v>
@@ -2371,10 +3586,10 @@
         <v>80</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="J19" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="K19" t="s">
         <v>45</v>
@@ -2383,13 +3598,13 @@
         <v>2013</v>
       </c>
       <c r="M19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P19" s="1">
         <v>41275</v>
@@ -2400,16 +3615,16 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
         <v>136</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="D20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E20" s="1">
         <v>41275</v>
@@ -2421,10 +3636,10 @@
         <v>81</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="K20" t="s">
         <v>46</v>
@@ -2433,13 +3648,13 @@
         <v>2012</v>
       </c>
       <c r="M20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P20" s="1">
         <v>40909</v>
@@ -2450,16 +3665,16 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
         <v>136</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E21" s="1">
         <v>40909</v>
@@ -2471,10 +3686,10 @@
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="K21" t="s">
         <v>47</v>
@@ -2483,13 +3698,13 @@
         <v>2011</v>
       </c>
       <c r="M21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P21" s="1">
         <v>40544</v>
@@ -2500,16 +3715,16 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E22" s="1">
         <v>40544</v>
@@ -2521,10 +3736,10 @@
         <v>83</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="J22" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="K22" t="s">
         <v>48</v>
@@ -2533,13 +3748,13 @@
         <v>2010</v>
       </c>
       <c r="M22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P22" s="1">
         <v>40179</v>
@@ -2550,16 +3765,16 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
         <v>136</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E23" s="1">
         <v>40179</v>
@@ -2571,10 +3786,10 @@
         <v>84</v>
       </c>
       <c r="I23" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="J23" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="K23" t="s">
         <v>49</v>
@@ -2583,13 +3798,13 @@
         <v>2009</v>
       </c>
       <c r="M23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P23" s="1">
         <v>39814</v>
@@ -2600,16 +3815,16 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
         <v>136</v>
       </c>
       <c r="C24" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E24" s="1">
         <v>39814</v>
@@ -2621,10 +3836,10 @@
         <v>85</v>
       </c>
       <c r="I24" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="J24" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="K24" t="s">
         <v>50</v>
@@ -2633,13 +3848,13 @@
         <v>2008</v>
       </c>
       <c r="M24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P24" s="1">
         <v>39448</v>
@@ -2650,16 +3865,16 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
         <v>136</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E25" s="1">
         <v>39448</v>
@@ -2671,10 +3886,10 @@
         <v>86</v>
       </c>
       <c r="I25" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="K25" t="s">
         <v>51</v>
@@ -2683,13 +3898,13 @@
         <v>2007</v>
       </c>
       <c r="M25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P25" s="1">
         <v>39083</v>
@@ -2700,16 +3915,16 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
         <v>136</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E26" s="1">
         <v>39083</v>
@@ -2721,10 +3936,10 @@
         <v>87</v>
       </c>
       <c r="I26" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="J26" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="K26" t="s">
         <v>52</v>
@@ -2733,13 +3948,13 @@
         <v>2006</v>
       </c>
       <c r="M26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P26" s="1">
         <v>38718</v>
@@ -2750,16 +3965,16 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
         <v>136</v>
       </c>
       <c r="C27" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E27" s="1">
         <v>38718</v>
@@ -2771,10 +3986,10 @@
         <v>88</v>
       </c>
       <c r="I27" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="J27" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="K27" t="s">
         <v>53</v>
@@ -2783,13 +3998,13 @@
         <v>2005</v>
       </c>
       <c r="M27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P27" s="1">
         <v>38353</v>
@@ -2800,16 +4015,16 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
         <v>136</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E28" s="1">
         <v>38353</v>
@@ -2821,10 +4036,10 @@
         <v>89</v>
       </c>
       <c r="I28" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="K28" t="s">
         <v>54</v>
@@ -2833,13 +4048,13 @@
         <v>2004</v>
       </c>
       <c r="M28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N28" t="s">
+        <v>173</v>
+      </c>
+      <c r="O28" t="s">
         <v>175</v>
-      </c>
-      <c r="O28" t="s">
-        <v>177</v>
       </c>
       <c r="P28" s="1">
         <v>37987</v>
@@ -2850,16 +4065,16 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
         <v>136</v>
       </c>
       <c r="C29" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E29" s="1">
         <v>37987</v>
@@ -2871,10 +4086,10 @@
         <v>90</v>
       </c>
       <c r="I29" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="J29" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="K29" t="s">
         <v>55</v>
@@ -2883,13 +4098,13 @@
         <v>2003</v>
       </c>
       <c r="M29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P29" s="1">
         <v>37622</v>
@@ -2898,11 +4113,3940 @@
         <v>37986</v>
       </c>
     </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="1">
+        <v>42370</v>
+      </c>
+      <c r="G30" t="s">
+        <v>184</v>
+      </c>
+      <c r="H30" t="s">
+        <v>198</v>
+      </c>
+      <c r="I30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" t="s">
+        <v>212</v>
+      </c>
+      <c r="L30">
+        <v>2015</v>
+      </c>
+      <c r="M30" t="s">
+        <v>226</v>
+      </c>
+      <c r="N30" t="s">
+        <v>239</v>
+      </c>
+      <c r="O30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P30" s="1">
+        <v>42005</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>42369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="1">
+        <v>42005</v>
+      </c>
+      <c r="G31" t="s">
+        <v>185</v>
+      </c>
+      <c r="H31" t="s">
+        <v>199</v>
+      </c>
+      <c r="I31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" t="s">
+        <v>213</v>
+      </c>
+      <c r="L31">
+        <v>2014</v>
+      </c>
+      <c r="M31" t="s">
+        <v>227</v>
+      </c>
+      <c r="N31" t="s">
+        <v>240</v>
+      </c>
+      <c r="O31" t="s">
+        <v>175</v>
+      </c>
+      <c r="P31" s="1">
+        <v>41640</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>42004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="1">
+        <v>41640</v>
+      </c>
+      <c r="G32" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32" t="s">
+        <v>200</v>
+      </c>
+      <c r="I32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" t="s">
+        <v>214</v>
+      </c>
+      <c r="L32">
+        <v>2013</v>
+      </c>
+      <c r="M32" t="s">
+        <v>228</v>
+      </c>
+      <c r="N32" t="s">
+        <v>241</v>
+      </c>
+      <c r="O32" t="s">
+        <v>175</v>
+      </c>
+      <c r="P32" s="1">
+        <v>41275</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>41639</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="1">
+        <v>41275</v>
+      </c>
+      <c r="G33" t="s">
+        <v>187</v>
+      </c>
+      <c r="H33" t="s">
+        <v>201</v>
+      </c>
+      <c r="I33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" t="s">
+        <v>215</v>
+      </c>
+      <c r="L33">
+        <v>2012</v>
+      </c>
+      <c r="M33" t="s">
+        <v>229</v>
+      </c>
+      <c r="N33" t="s">
+        <v>242</v>
+      </c>
+      <c r="O33" t="s">
+        <v>175</v>
+      </c>
+      <c r="P33" s="1">
+        <v>40909</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>41274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="1">
+        <v>40909</v>
+      </c>
+      <c r="G34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H34" t="s">
+        <v>202</v>
+      </c>
+      <c r="I34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" t="s">
+        <v>216</v>
+      </c>
+      <c r="L34">
+        <v>2011</v>
+      </c>
+      <c r="M34" t="s">
+        <v>230</v>
+      </c>
+      <c r="N34" t="s">
+        <v>243</v>
+      </c>
+      <c r="O34" t="s">
+        <v>175</v>
+      </c>
+      <c r="P34" s="1">
+        <v>40544</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>40908</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="1">
+        <v>40544</v>
+      </c>
+      <c r="G35" t="s">
+        <v>189</v>
+      </c>
+      <c r="H35" t="s">
+        <v>203</v>
+      </c>
+      <c r="I35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" t="s">
+        <v>217</v>
+      </c>
+      <c r="L35">
+        <v>2010</v>
+      </c>
+      <c r="M35" t="s">
+        <v>231</v>
+      </c>
+      <c r="N35" t="s">
+        <v>244</v>
+      </c>
+      <c r="O35" t="s">
+        <v>175</v>
+      </c>
+      <c r="P35" s="1">
+        <v>40179</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>40543</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="1">
+        <v>40179</v>
+      </c>
+      <c r="G36" t="s">
+        <v>190</v>
+      </c>
+      <c r="H36" t="s">
+        <v>204</v>
+      </c>
+      <c r="I36" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" t="s">
+        <v>218</v>
+      </c>
+      <c r="L36">
+        <v>2009</v>
+      </c>
+      <c r="M36" t="s">
+        <v>232</v>
+      </c>
+      <c r="N36" t="s">
+        <v>245</v>
+      </c>
+      <c r="O36" t="s">
+        <v>175</v>
+      </c>
+      <c r="P36" s="1">
+        <v>39814</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>40178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="1">
+        <v>39814</v>
+      </c>
+      <c r="G37" t="s">
+        <v>191</v>
+      </c>
+      <c r="H37" t="s">
+        <v>205</v>
+      </c>
+      <c r="I37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" t="s">
+        <v>219</v>
+      </c>
+      <c r="L37">
+        <v>2008</v>
+      </c>
+      <c r="M37" t="s">
+        <v>233</v>
+      </c>
+      <c r="N37" t="s">
+        <v>246</v>
+      </c>
+      <c r="O37" t="s">
+        <v>175</v>
+      </c>
+      <c r="P37" s="1">
+        <v>39448</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>39813</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="1">
+        <v>39448</v>
+      </c>
+      <c r="G38" t="s">
+        <v>192</v>
+      </c>
+      <c r="H38" t="s">
+        <v>206</v>
+      </c>
+      <c r="I38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" t="s">
+        <v>220</v>
+      </c>
+      <c r="L38">
+        <v>2007</v>
+      </c>
+      <c r="M38" t="s">
+        <v>234</v>
+      </c>
+      <c r="N38" t="s">
+        <v>247</v>
+      </c>
+      <c r="O38" t="s">
+        <v>175</v>
+      </c>
+      <c r="P38" s="1">
+        <v>39083</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>39447</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="1">
+        <v>39083</v>
+      </c>
+      <c r="G39" t="s">
+        <v>193</v>
+      </c>
+      <c r="H39" t="s">
+        <v>207</v>
+      </c>
+      <c r="I39" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" t="s">
+        <v>221</v>
+      </c>
+      <c r="L39">
+        <v>2006</v>
+      </c>
+      <c r="M39" t="s">
+        <v>235</v>
+      </c>
+      <c r="N39" t="s">
+        <v>248</v>
+      </c>
+      <c r="O39" t="s">
+        <v>175</v>
+      </c>
+      <c r="P39" s="1">
+        <v>38718</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>39082</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="1">
+        <v>38718</v>
+      </c>
+      <c r="G40" t="s">
+        <v>194</v>
+      </c>
+      <c r="H40" t="s">
+        <v>208</v>
+      </c>
+      <c r="I40" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" t="s">
+        <v>222</v>
+      </c>
+      <c r="L40">
+        <v>2005</v>
+      </c>
+      <c r="M40" t="s">
+        <v>236</v>
+      </c>
+      <c r="N40" t="s">
+        <v>249</v>
+      </c>
+      <c r="O40" t="s">
+        <v>175</v>
+      </c>
+      <c r="P40" s="1">
+        <v>38353</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>38717</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="1">
+        <v>38353</v>
+      </c>
+      <c r="G41" t="s">
+        <v>195</v>
+      </c>
+      <c r="H41" t="s">
+        <v>209</v>
+      </c>
+      <c r="I41" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" t="s">
+        <v>223</v>
+      </c>
+      <c r="L41">
+        <v>2004</v>
+      </c>
+      <c r="M41" t="s">
+        <v>237</v>
+      </c>
+      <c r="N41" t="s">
+        <v>250</v>
+      </c>
+      <c r="O41" t="s">
+        <v>175</v>
+      </c>
+      <c r="P41" s="1">
+        <v>37987</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>38352</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="1">
+        <v>37987</v>
+      </c>
+      <c r="G42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H42" t="s">
+        <v>210</v>
+      </c>
+      <c r="I42" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" t="s">
+        <v>224</v>
+      </c>
+      <c r="L42">
+        <v>2003</v>
+      </c>
+      <c r="M42" t="s">
+        <v>238</v>
+      </c>
+      <c r="N42" t="s">
+        <v>251</v>
+      </c>
+      <c r="O42" t="s">
+        <v>175</v>
+      </c>
+      <c r="P42" s="1">
+        <v>37622</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>37986</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" t="s">
+        <v>252</v>
+      </c>
+      <c r="D43" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="1">
+        <v>42005</v>
+      </c>
+      <c r="G43" t="s">
+        <v>197</v>
+      </c>
+      <c r="H43" t="s">
+        <v>211</v>
+      </c>
+      <c r="I43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" t="s">
+        <v>225</v>
+      </c>
+      <c r="L43">
+        <v>2014</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N43" t="s">
+        <v>341</v>
+      </c>
+      <c r="O43" t="s">
+        <v>175</v>
+      </c>
+      <c r="P43" s="1">
+        <v>41640</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>42004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D44" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="1">
+        <v>41640</v>
+      </c>
+      <c r="G44" t="s">
+        <v>257</v>
+      </c>
+      <c r="H44" t="s">
+        <v>258</v>
+      </c>
+      <c r="I44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44" t="s">
+        <v>313</v>
+      </c>
+      <c r="L44">
+        <v>2013</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="N44" t="s">
+        <v>342</v>
+      </c>
+      <c r="O44" t="s">
+        <v>175</v>
+      </c>
+      <c r="P44" s="1">
+        <v>41275</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>41639</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" t="s">
+        <v>252</v>
+      </c>
+      <c r="D45" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="1">
+        <v>41275</v>
+      </c>
+      <c r="G45" t="s">
+        <v>259</v>
+      </c>
+      <c r="H45" t="s">
+        <v>260</v>
+      </c>
+      <c r="I45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" t="s">
+        <v>314</v>
+      </c>
+      <c r="L45">
+        <v>2012</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="N45" t="s">
+        <v>343</v>
+      </c>
+      <c r="O45" t="s">
+        <v>175</v>
+      </c>
+      <c r="P45" s="1">
+        <v>40909</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>41274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="1">
+        <v>40909</v>
+      </c>
+      <c r="G46" t="s">
+        <v>261</v>
+      </c>
+      <c r="H46" t="s">
+        <v>262</v>
+      </c>
+      <c r="I46" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" t="s">
+        <v>315</v>
+      </c>
+      <c r="L46">
+        <v>2011</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="N46" t="s">
+        <v>344</v>
+      </c>
+      <c r="O46" t="s">
+        <v>175</v>
+      </c>
+      <c r="P46" s="1">
+        <v>40544</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>40908</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" t="s">
+        <v>252</v>
+      </c>
+      <c r="D47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" s="1">
+        <v>40544</v>
+      </c>
+      <c r="G47" t="s">
+        <v>263</v>
+      </c>
+      <c r="H47" t="s">
+        <v>264</v>
+      </c>
+      <c r="I47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" t="s">
+        <v>316</v>
+      </c>
+      <c r="L47">
+        <v>2010</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="N47" t="s">
+        <v>345</v>
+      </c>
+      <c r="O47" t="s">
+        <v>175</v>
+      </c>
+      <c r="P47" s="1">
+        <v>40179</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>40543</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" t="s">
+        <v>252</v>
+      </c>
+      <c r="D48" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="1">
+        <v>40179</v>
+      </c>
+      <c r="G48" t="s">
+        <v>265</v>
+      </c>
+      <c r="H48" t="s">
+        <v>266</v>
+      </c>
+      <c r="I48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48" t="s">
+        <v>317</v>
+      </c>
+      <c r="L48">
+        <v>2009</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="N48" t="s">
+        <v>346</v>
+      </c>
+      <c r="O48" t="s">
+        <v>175</v>
+      </c>
+      <c r="P48" s="1">
+        <v>39814</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>40178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>15</v>
+      </c>
+      <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" t="s">
+        <v>252</v>
+      </c>
+      <c r="D49" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="1">
+        <v>39814</v>
+      </c>
+      <c r="G49" t="s">
+        <v>267</v>
+      </c>
+      <c r="H49" t="s">
+        <v>268</v>
+      </c>
+      <c r="I49" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" t="s">
+        <v>318</v>
+      </c>
+      <c r="L49">
+        <v>2008</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="N49" t="s">
+        <v>347</v>
+      </c>
+      <c r="O49" t="s">
+        <v>175</v>
+      </c>
+      <c r="P49" s="1">
+        <v>39448</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>39813</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" t="s">
+        <v>252</v>
+      </c>
+      <c r="D50" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="1">
+        <v>39448</v>
+      </c>
+      <c r="G50" t="s">
+        <v>269</v>
+      </c>
+      <c r="H50" t="s">
+        <v>270</v>
+      </c>
+      <c r="I50" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" t="s">
+        <v>27</v>
+      </c>
+      <c r="K50" t="s">
+        <v>319</v>
+      </c>
+      <c r="L50">
+        <v>2007</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="N50" t="s">
+        <v>348</v>
+      </c>
+      <c r="O50" t="s">
+        <v>175</v>
+      </c>
+      <c r="P50" s="1">
+        <v>39083</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>39447</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" t="s">
+        <v>252</v>
+      </c>
+      <c r="D51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="1">
+        <v>39083</v>
+      </c>
+      <c r="G51" t="s">
+        <v>271</v>
+      </c>
+      <c r="H51" t="s">
+        <v>272</v>
+      </c>
+      <c r="I51" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" t="s">
+        <v>27</v>
+      </c>
+      <c r="K51" t="s">
+        <v>320</v>
+      </c>
+      <c r="L51">
+        <v>2006</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="N51" t="s">
+        <v>349</v>
+      </c>
+      <c r="O51" t="s">
+        <v>175</v>
+      </c>
+      <c r="P51" s="1">
+        <v>38718</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>39082</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D52" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="1">
+        <v>38718</v>
+      </c>
+      <c r="G52" t="s">
+        <v>273</v>
+      </c>
+      <c r="H52" t="s">
+        <v>274</v>
+      </c>
+      <c r="I52" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52" t="s">
+        <v>321</v>
+      </c>
+      <c r="L52">
+        <v>2005</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="N52" t="s">
+        <v>350</v>
+      </c>
+      <c r="O52" t="s">
+        <v>175</v>
+      </c>
+      <c r="P52" s="1">
+        <v>38353</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>38717</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" t="s">
+        <v>253</v>
+      </c>
+      <c r="D53" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="1">
+        <v>38353</v>
+      </c>
+      <c r="G53" t="s">
+        <v>275</v>
+      </c>
+      <c r="H53" t="s">
+        <v>276</v>
+      </c>
+      <c r="I53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" t="s">
+        <v>322</v>
+      </c>
+      <c r="L53">
+        <v>2004</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="N53" t="s">
+        <v>351</v>
+      </c>
+      <c r="O53" t="s">
+        <v>175</v>
+      </c>
+      <c r="P53" s="1">
+        <v>37987</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>38352</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" t="s">
+        <v>253</v>
+      </c>
+      <c r="D54" t="s">
+        <v>143</v>
+      </c>
+      <c r="E54" s="1">
+        <v>37987</v>
+      </c>
+      <c r="G54" t="s">
+        <v>277</v>
+      </c>
+      <c r="H54" t="s">
+        <v>278</v>
+      </c>
+      <c r="I54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" t="s">
+        <v>323</v>
+      </c>
+      <c r="L54">
+        <v>2003</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="N54" t="s">
+        <v>352</v>
+      </c>
+      <c r="O54" t="s">
+        <v>175</v>
+      </c>
+      <c r="P54" s="1">
+        <v>37622</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>37986</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" t="s">
+        <v>253</v>
+      </c>
+      <c r="D55" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" s="1">
+        <v>42736</v>
+      </c>
+      <c r="G55" t="s">
+        <v>279</v>
+      </c>
+      <c r="H55" t="s">
+        <v>280</v>
+      </c>
+      <c r="I55" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" t="s">
+        <v>27</v>
+      </c>
+      <c r="K55" t="s">
+        <v>324</v>
+      </c>
+      <c r="L55">
+        <v>2016</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N55" t="s">
+        <v>353</v>
+      </c>
+      <c r="O55" t="s">
+        <v>22</v>
+      </c>
+      <c r="P55" s="1">
+        <v>42370</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>42735</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" t="s">
+        <v>253</v>
+      </c>
+      <c r="D56" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="1">
+        <v>42370</v>
+      </c>
+      <c r="G56" t="s">
+        <v>281</v>
+      </c>
+      <c r="H56" t="s">
+        <v>282</v>
+      </c>
+      <c r="I56" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" t="s">
+        <v>27</v>
+      </c>
+      <c r="K56" t="s">
+        <v>325</v>
+      </c>
+      <c r="L56">
+        <v>2015</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="N56" t="s">
+        <v>354</v>
+      </c>
+      <c r="O56" t="s">
+        <v>22</v>
+      </c>
+      <c r="P56" s="1">
+        <v>42005</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>42369</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" t="s">
+        <v>253</v>
+      </c>
+      <c r="D57" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="1">
+        <v>42005</v>
+      </c>
+      <c r="G57" t="s">
+        <v>283</v>
+      </c>
+      <c r="H57" t="s">
+        <v>284</v>
+      </c>
+      <c r="I57" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57" t="s">
+        <v>27</v>
+      </c>
+      <c r="K57" t="s">
+        <v>326</v>
+      </c>
+      <c r="L57">
+        <v>2014</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="N57" t="s">
+        <v>355</v>
+      </c>
+      <c r="O57" t="s">
+        <v>175</v>
+      </c>
+      <c r="P57" s="1">
+        <v>41640</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>42004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" t="s">
+        <v>253</v>
+      </c>
+      <c r="D58" t="s">
+        <v>143</v>
+      </c>
+      <c r="E58" s="1">
+        <v>41640</v>
+      </c>
+      <c r="G58" t="s">
+        <v>285</v>
+      </c>
+      <c r="H58" t="s">
+        <v>286</v>
+      </c>
+      <c r="I58" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" t="s">
+        <v>27</v>
+      </c>
+      <c r="K58" t="s">
+        <v>327</v>
+      </c>
+      <c r="L58">
+        <v>2013</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="O58" t="s">
+        <v>175</v>
+      </c>
+      <c r="P58" s="1">
+        <v>41275</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>41639</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" t="s">
+        <v>253</v>
+      </c>
+      <c r="D59" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="1">
+        <v>41275</v>
+      </c>
+      <c r="G59" t="s">
+        <v>287</v>
+      </c>
+      <c r="H59" t="s">
+        <v>288</v>
+      </c>
+      <c r="I59" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59" t="s">
+        <v>328</v>
+      </c>
+      <c r="L59">
+        <v>2012</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="O59" t="s">
+        <v>22</v>
+      </c>
+      <c r="P59" s="1">
+        <v>40909</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>41274</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" t="s">
+        <v>253</v>
+      </c>
+      <c r="D60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="1">
+        <v>40909</v>
+      </c>
+      <c r="G60" t="s">
+        <v>289</v>
+      </c>
+      <c r="H60" t="s">
+        <v>290</v>
+      </c>
+      <c r="I60" t="s">
+        <v>27</v>
+      </c>
+      <c r="J60" t="s">
+        <v>27</v>
+      </c>
+      <c r="K60" t="s">
+        <v>329</v>
+      </c>
+      <c r="L60">
+        <v>2011</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="O60" t="s">
+        <v>175</v>
+      </c>
+      <c r="P60" s="1">
+        <v>40544</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>40908</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" t="s">
+        <v>253</v>
+      </c>
+      <c r="D61" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" s="1">
+        <v>40544</v>
+      </c>
+      <c r="G61" t="s">
+        <v>291</v>
+      </c>
+      <c r="H61" t="s">
+        <v>292</v>
+      </c>
+      <c r="I61" t="s">
+        <v>27</v>
+      </c>
+      <c r="J61" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61" t="s">
+        <v>330</v>
+      </c>
+      <c r="L61">
+        <v>2010</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="O61" t="s">
+        <v>175</v>
+      </c>
+      <c r="P61" s="1">
+        <v>40179</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>40543</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" t="s">
+        <v>253</v>
+      </c>
+      <c r="D62" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62" s="1">
+        <v>40179</v>
+      </c>
+      <c r="G62" t="s">
+        <v>293</v>
+      </c>
+      <c r="H62" t="s">
+        <v>294</v>
+      </c>
+      <c r="I62" t="s">
+        <v>27</v>
+      </c>
+      <c r="J62" t="s">
+        <v>27</v>
+      </c>
+      <c r="K62" t="s">
+        <v>331</v>
+      </c>
+      <c r="L62">
+        <v>2009</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N62" t="s">
+        <v>360</v>
+      </c>
+      <c r="O62" t="s">
+        <v>175</v>
+      </c>
+      <c r="P62" s="1">
+        <v>39814</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>40178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" t="s">
+        <v>253</v>
+      </c>
+      <c r="D63" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" s="1">
+        <v>39814</v>
+      </c>
+      <c r="G63" t="s">
+        <v>295</v>
+      </c>
+      <c r="H63" t="s">
+        <v>296</v>
+      </c>
+      <c r="I63" t="s">
+        <v>27</v>
+      </c>
+      <c r="J63" t="s">
+        <v>27</v>
+      </c>
+      <c r="K63" t="s">
+        <v>332</v>
+      </c>
+      <c r="L63">
+        <v>2008</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="O63" t="s">
+        <v>175</v>
+      </c>
+      <c r="P63" s="1">
+        <v>39448</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>39813</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" t="s">
+        <v>253</v>
+      </c>
+      <c r="D64" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="1">
+        <v>39448</v>
+      </c>
+      <c r="G64" t="s">
+        <v>297</v>
+      </c>
+      <c r="H64" t="s">
+        <v>298</v>
+      </c>
+      <c r="I64" t="s">
+        <v>27</v>
+      </c>
+      <c r="J64" t="s">
+        <v>27</v>
+      </c>
+      <c r="K64" t="s">
+        <v>333</v>
+      </c>
+      <c r="L64">
+        <v>2007</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="O64" t="s">
+        <v>175</v>
+      </c>
+      <c r="P64" s="1">
+        <v>39083</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>39447</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" t="s">
+        <v>253</v>
+      </c>
+      <c r="D65" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" s="1">
+        <v>39083</v>
+      </c>
+      <c r="G65" t="s">
+        <v>299</v>
+      </c>
+      <c r="H65" t="s">
+        <v>300</v>
+      </c>
+      <c r="I65" t="s">
+        <v>27</v>
+      </c>
+      <c r="J65" t="s">
+        <v>27</v>
+      </c>
+      <c r="K65" t="s">
+        <v>334</v>
+      </c>
+      <c r="L65">
+        <v>2006</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="N65" t="s">
+        <v>363</v>
+      </c>
+      <c r="O65" t="s">
+        <v>175</v>
+      </c>
+      <c r="P65" s="1">
+        <v>38718</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>39082</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" t="s">
+        <v>253</v>
+      </c>
+      <c r="D66" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" s="1">
+        <v>38718</v>
+      </c>
+      <c r="G66" t="s">
+        <v>301</v>
+      </c>
+      <c r="H66" t="s">
+        <v>302</v>
+      </c>
+      <c r="I66" t="s">
+        <v>27</v>
+      </c>
+      <c r="J66" t="s">
+        <v>27</v>
+      </c>
+      <c r="K66" t="s">
+        <v>335</v>
+      </c>
+      <c r="L66">
+        <v>2005</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N66" t="s">
+        <v>364</v>
+      </c>
+      <c r="O66" t="s">
+        <v>175</v>
+      </c>
+      <c r="P66" s="1">
+        <v>38353</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>38717</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
+        <v>253</v>
+      </c>
+      <c r="D67" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" s="1">
+        <v>38353</v>
+      </c>
+      <c r="G67" t="s">
+        <v>303</v>
+      </c>
+      <c r="H67" t="s">
+        <v>304</v>
+      </c>
+      <c r="I67" t="s">
+        <v>27</v>
+      </c>
+      <c r="J67" t="s">
+        <v>27</v>
+      </c>
+      <c r="K67" t="s">
+        <v>336</v>
+      </c>
+      <c r="L67">
+        <v>2004</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="N67" t="s">
+        <v>365</v>
+      </c>
+      <c r="O67" t="s">
+        <v>175</v>
+      </c>
+      <c r="P67" s="1">
+        <v>37987</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>38352</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" t="s">
+        <v>253</v>
+      </c>
+      <c r="D68" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" s="1">
+        <v>37987</v>
+      </c>
+      <c r="G68" t="s">
+        <v>305</v>
+      </c>
+      <c r="H68" t="s">
+        <v>306</v>
+      </c>
+      <c r="I68" t="s">
+        <v>27</v>
+      </c>
+      <c r="J68" t="s">
+        <v>27</v>
+      </c>
+      <c r="K68" t="s">
+        <v>337</v>
+      </c>
+      <c r="L68">
+        <v>2003</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="N68" t="s">
+        <v>366</v>
+      </c>
+      <c r="O68" t="s">
+        <v>175</v>
+      </c>
+      <c r="P68" s="1">
+        <v>37622</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>37986</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>17</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" t="s">
+        <v>254</v>
+      </c>
+      <c r="D69" t="s">
+        <v>143</v>
+      </c>
+      <c r="E69" s="1">
+        <v>42736</v>
+      </c>
+      <c r="G69" t="s">
+        <v>307</v>
+      </c>
+      <c r="H69" t="s">
+        <v>308</v>
+      </c>
+      <c r="I69" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69" t="s">
+        <v>27</v>
+      </c>
+      <c r="K69" t="s">
+        <v>338</v>
+      </c>
+      <c r="L69">
+        <v>2016</v>
+      </c>
+      <c r="M69" s="2" t="str">
+        <f>Tabell1[[#This Row],[namn]]</f>
+        <v>Utbetalning årsstatistik från 2003 Allmän pension. Tabell 03 Antal pensionärer. Regelverk, kön och typ av pension</v>
+      </c>
+      <c r="N69" t="s">
+        <v>367</v>
+      </c>
+      <c r="O69" t="s">
+        <v>22</v>
+      </c>
+      <c r="P69" s="1">
+        <v>42370</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>42735</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>18</v>
+      </c>
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" t="s">
+        <v>255</v>
+      </c>
+      <c r="D70" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70" s="1">
+        <v>42736</v>
+      </c>
+      <c r="G70" t="s">
+        <v>309</v>
+      </c>
+      <c r="H70" t="s">
+        <v>310</v>
+      </c>
+      <c r="I70" t="s">
+        <v>27</v>
+      </c>
+      <c r="J70" t="s">
+        <v>27</v>
+      </c>
+      <c r="K70" t="s">
+        <v>339</v>
+      </c>
+      <c r="L70">
+        <v>2016</v>
+      </c>
+      <c r="M70" s="2" t="str">
+        <f>Tabell1[[#This Row],[namn]]</f>
+        <v>Utbetalning årsstatistik från 2003 Allmän pension. Antal pensionärer. Kön, åldersgrupp, typ av pension</v>
+      </c>
+      <c r="N70" t="s">
+        <v>368</v>
+      </c>
+      <c r="O70" t="s">
+        <v>22</v>
+      </c>
+      <c r="P70" s="1">
+        <v>42370</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>42735</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>19</v>
+      </c>
+      <c r="B71" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" t="s">
+        <v>256</v>
+      </c>
+      <c r="D71" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" s="1">
+        <v>42736</v>
+      </c>
+      <c r="G71" t="s">
+        <v>311</v>
+      </c>
+      <c r="H71" t="s">
+        <v>312</v>
+      </c>
+      <c r="I71" t="s">
+        <v>27</v>
+      </c>
+      <c r="J71" t="s">
+        <v>27</v>
+      </c>
+      <c r="K71" t="s">
+        <v>340</v>
+      </c>
+      <c r="L71">
+        <v>2016</v>
+      </c>
+      <c r="M71" s="2" t="str">
+        <f>Tabell1[[#This Row],[namn]]</f>
+        <v>Utbetalning årsstatistik från 2003 Allmän pension. Årsbelopp. Kön, åldersgrupp och typ av pension</v>
+      </c>
+      <c r="N71" t="s">
+        <v>369</v>
+      </c>
+      <c r="O71" t="s">
+        <v>22</v>
+      </c>
+      <c r="P71" s="1">
+        <v>42370</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>42735</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" t="s">
+        <v>397</v>
+      </c>
+      <c r="D72" t="s">
+        <v>396</v>
+      </c>
+      <c r="E72" s="1">
+        <v>37622</v>
+      </c>
+      <c r="G72" t="s">
+        <v>402</v>
+      </c>
+      <c r="H72" t="s">
+        <v>403</v>
+      </c>
+      <c r="I72" t="s">
+        <v>27</v>
+      </c>
+      <c r="J72" t="s">
+        <v>27</v>
+      </c>
+      <c r="K72" t="s">
+        <v>442</v>
+      </c>
+      <c r="L72">
+        <v>2002</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="N72" t="s">
+        <v>482</v>
+      </c>
+      <c r="O72" t="s">
+        <v>175</v>
+      </c>
+      <c r="P72" s="1">
+        <v>37257</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>37621</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>20</v>
+      </c>
+      <c r="B73" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" t="s">
+        <v>397</v>
+      </c>
+      <c r="D73" t="s">
+        <v>396</v>
+      </c>
+      <c r="E73" s="1">
+        <v>37257</v>
+      </c>
+      <c r="G73" t="s">
+        <v>404</v>
+      </c>
+      <c r="H73" t="s">
+        <v>405</v>
+      </c>
+      <c r="I73" t="s">
+        <v>27</v>
+      </c>
+      <c r="J73" t="s">
+        <v>27</v>
+      </c>
+      <c r="K73" t="s">
+        <v>443</v>
+      </c>
+      <c r="L73">
+        <v>2001</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="N73" t="s">
+        <v>483</v>
+      </c>
+      <c r="O73" t="s">
+        <v>175</v>
+      </c>
+      <c r="P73" s="1">
+        <v>36892</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>37256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>20</v>
+      </c>
+      <c r="B74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" t="s">
+        <v>397</v>
+      </c>
+      <c r="D74" t="s">
+        <v>396</v>
+      </c>
+      <c r="E74" s="1">
+        <v>36892</v>
+      </c>
+      <c r="G74" t="s">
+        <v>406</v>
+      </c>
+      <c r="H74" t="s">
+        <v>407</v>
+      </c>
+      <c r="I74" t="s">
+        <v>27</v>
+      </c>
+      <c r="J74" t="s">
+        <v>27</v>
+      </c>
+      <c r="K74" t="s">
+        <v>444</v>
+      </c>
+      <c r="L74">
+        <v>2000</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="N74" t="s">
+        <v>484</v>
+      </c>
+      <c r="O74" t="s">
+        <v>175</v>
+      </c>
+      <c r="P74" s="1">
+        <v>36526</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>36891</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>20</v>
+      </c>
+      <c r="B75" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" t="s">
+        <v>397</v>
+      </c>
+      <c r="D75" t="s">
+        <v>396</v>
+      </c>
+      <c r="E75" s="1">
+        <v>36526</v>
+      </c>
+      <c r="G75" t="s">
+        <v>408</v>
+      </c>
+      <c r="H75" t="s">
+        <v>409</v>
+      </c>
+      <c r="I75" t="s">
+        <v>27</v>
+      </c>
+      <c r="J75" t="s">
+        <v>27</v>
+      </c>
+      <c r="K75" t="s">
+        <v>445</v>
+      </c>
+      <c r="L75">
+        <v>1999</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="N75" t="s">
+        <v>485</v>
+      </c>
+      <c r="O75" t="s">
+        <v>175</v>
+      </c>
+      <c r="P75" s="1">
+        <v>36161</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>36525</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>21</v>
+      </c>
+      <c r="B76" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" t="s">
+        <v>398</v>
+      </c>
+      <c r="D76" t="s">
+        <v>396</v>
+      </c>
+      <c r="E76" s="1">
+        <v>37622</v>
+      </c>
+      <c r="G76" t="s">
+        <v>410</v>
+      </c>
+      <c r="H76" t="s">
+        <v>411</v>
+      </c>
+      <c r="I76" t="s">
+        <v>27</v>
+      </c>
+      <c r="J76" t="s">
+        <v>27</v>
+      </c>
+      <c r="K76" t="s">
+        <v>446</v>
+      </c>
+      <c r="L76">
+        <v>2002</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="N76" t="s">
+        <v>486</v>
+      </c>
+      <c r="O76" t="s">
+        <v>175</v>
+      </c>
+      <c r="P76" s="1">
+        <v>37257</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>37621</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>21</v>
+      </c>
+      <c r="B77" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" t="s">
+        <v>398</v>
+      </c>
+      <c r="D77" t="s">
+        <v>396</v>
+      </c>
+      <c r="E77" s="1">
+        <v>37257</v>
+      </c>
+      <c r="G77" t="s">
+        <v>412</v>
+      </c>
+      <c r="H77" t="s">
+        <v>413</v>
+      </c>
+      <c r="I77" t="s">
+        <v>27</v>
+      </c>
+      <c r="J77" t="s">
+        <v>27</v>
+      </c>
+      <c r="K77" t="s">
+        <v>447</v>
+      </c>
+      <c r="L77">
+        <v>2001</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="N77" t="s">
+        <v>487</v>
+      </c>
+      <c r="O77" t="s">
+        <v>175</v>
+      </c>
+      <c r="P77" s="1">
+        <v>36892</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>37256</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>21</v>
+      </c>
+      <c r="B78" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" t="s">
+        <v>398</v>
+      </c>
+      <c r="D78" t="s">
+        <v>396</v>
+      </c>
+      <c r="E78" s="1">
+        <v>36892</v>
+      </c>
+      <c r="G78" t="s">
+        <v>414</v>
+      </c>
+      <c r="H78" t="s">
+        <v>415</v>
+      </c>
+      <c r="I78" t="s">
+        <v>27</v>
+      </c>
+      <c r="J78" t="s">
+        <v>27</v>
+      </c>
+      <c r="K78" t="s">
+        <v>448</v>
+      </c>
+      <c r="L78">
+        <v>2000</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="N78" t="s">
+        <v>488</v>
+      </c>
+      <c r="O78" t="s">
+        <v>175</v>
+      </c>
+      <c r="P78" s="1">
+        <v>36526</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>36891</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>21</v>
+      </c>
+      <c r="B79" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" t="s">
+        <v>398</v>
+      </c>
+      <c r="D79" t="s">
+        <v>396</v>
+      </c>
+      <c r="E79" s="1">
+        <v>36526</v>
+      </c>
+      <c r="G79" t="s">
+        <v>416</v>
+      </c>
+      <c r="H79" t="s">
+        <v>417</v>
+      </c>
+      <c r="I79" t="s">
+        <v>27</v>
+      </c>
+      <c r="J79" t="s">
+        <v>27</v>
+      </c>
+      <c r="K79" t="s">
+        <v>449</v>
+      </c>
+      <c r="L79">
+        <v>1999</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="N79" t="s">
+        <v>489</v>
+      </c>
+      <c r="O79" t="s">
+        <v>175</v>
+      </c>
+      <c r="P79" s="1">
+        <v>36161</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>36525</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>22</v>
+      </c>
+      <c r="B80" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" t="s">
+        <v>399</v>
+      </c>
+      <c r="D80" t="s">
+        <v>396</v>
+      </c>
+      <c r="E80" s="1">
+        <v>37622</v>
+      </c>
+      <c r="G80" t="s">
+        <v>418</v>
+      </c>
+      <c r="H80" t="s">
+        <v>419</v>
+      </c>
+      <c r="I80" t="s">
+        <v>27</v>
+      </c>
+      <c r="J80" t="s">
+        <v>27</v>
+      </c>
+      <c r="K80" t="s">
+        <v>450</v>
+      </c>
+      <c r="L80">
+        <v>2002</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="N80" t="s">
+        <v>490</v>
+      </c>
+      <c r="O80" t="s">
+        <v>175</v>
+      </c>
+      <c r="P80" s="1">
+        <v>37257</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>37621</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>22</v>
+      </c>
+      <c r="B81" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" t="s">
+        <v>399</v>
+      </c>
+      <c r="D81" t="s">
+        <v>396</v>
+      </c>
+      <c r="E81" s="1">
+        <v>37257</v>
+      </c>
+      <c r="G81" t="s">
+        <v>420</v>
+      </c>
+      <c r="H81" t="s">
+        <v>421</v>
+      </c>
+      <c r="I81" t="s">
+        <v>27</v>
+      </c>
+      <c r="J81" t="s">
+        <v>27</v>
+      </c>
+      <c r="K81" t="s">
+        <v>451</v>
+      </c>
+      <c r="L81">
+        <v>2001</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="N81" t="s">
+        <v>491</v>
+      </c>
+      <c r="O81" t="s">
+        <v>175</v>
+      </c>
+      <c r="P81" s="1">
+        <v>36892</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>37256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>22</v>
+      </c>
+      <c r="B82" t="s">
+        <v>136</v>
+      </c>
+      <c r="C82" t="s">
+        <v>399</v>
+      </c>
+      <c r="D82" t="s">
+        <v>396</v>
+      </c>
+      <c r="E82" s="1">
+        <v>36892</v>
+      </c>
+      <c r="G82" t="s">
+        <v>422</v>
+      </c>
+      <c r="H82" t="s">
+        <v>423</v>
+      </c>
+      <c r="I82" t="s">
+        <v>27</v>
+      </c>
+      <c r="J82" t="s">
+        <v>27</v>
+      </c>
+      <c r="K82" t="s">
+        <v>452</v>
+      </c>
+      <c r="L82">
+        <v>2000</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="N82" t="s">
+        <v>492</v>
+      </c>
+      <c r="O82" t="s">
+        <v>175</v>
+      </c>
+      <c r="P82" s="1">
+        <v>36526</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>36891</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>22</v>
+      </c>
+      <c r="B83" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" t="s">
+        <v>399</v>
+      </c>
+      <c r="D83" t="s">
+        <v>396</v>
+      </c>
+      <c r="E83" s="1">
+        <v>36526</v>
+      </c>
+      <c r="G83" t="s">
+        <v>424</v>
+      </c>
+      <c r="H83" t="s">
+        <v>425</v>
+      </c>
+      <c r="I83" t="s">
+        <v>27</v>
+      </c>
+      <c r="J83" t="s">
+        <v>27</v>
+      </c>
+      <c r="K83" t="s">
+        <v>453</v>
+      </c>
+      <c r="L83">
+        <v>1999</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="N83" t="s">
+        <v>493</v>
+      </c>
+      <c r="O83" t="s">
+        <v>175</v>
+      </c>
+      <c r="P83" s="1">
+        <v>36161</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>36525</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>23</v>
+      </c>
+      <c r="B84" t="s">
+        <v>136</v>
+      </c>
+      <c r="C84" t="s">
+        <v>400</v>
+      </c>
+      <c r="D84" t="s">
+        <v>396</v>
+      </c>
+      <c r="E84" s="1">
+        <v>37622</v>
+      </c>
+      <c r="G84" t="s">
+        <v>426</v>
+      </c>
+      <c r="H84" t="s">
+        <v>427</v>
+      </c>
+      <c r="I84" t="s">
+        <v>27</v>
+      </c>
+      <c r="J84" t="s">
+        <v>27</v>
+      </c>
+      <c r="K84" t="s">
+        <v>454</v>
+      </c>
+      <c r="L84">
+        <v>2002</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="N84" t="s">
+        <v>494</v>
+      </c>
+      <c r="O84" t="s">
+        <v>175</v>
+      </c>
+      <c r="P84" s="1">
+        <v>37257</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>37621</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>23</v>
+      </c>
+      <c r="B85" t="s">
+        <v>136</v>
+      </c>
+      <c r="C85" t="s">
+        <v>400</v>
+      </c>
+      <c r="D85" t="s">
+        <v>396</v>
+      </c>
+      <c r="E85" s="1">
+        <v>37257</v>
+      </c>
+      <c r="G85" t="s">
+        <v>428</v>
+      </c>
+      <c r="H85" t="s">
+        <v>429</v>
+      </c>
+      <c r="I85" t="s">
+        <v>27</v>
+      </c>
+      <c r="J85" t="s">
+        <v>27</v>
+      </c>
+      <c r="K85" t="s">
+        <v>455</v>
+      </c>
+      <c r="L85">
+        <v>2001</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="N85" t="s">
+        <v>495</v>
+      </c>
+      <c r="O85" t="s">
+        <v>175</v>
+      </c>
+      <c r="P85" s="1">
+        <v>36892</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>37256</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>23</v>
+      </c>
+      <c r="B86" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" t="s">
+        <v>400</v>
+      </c>
+      <c r="D86" t="s">
+        <v>396</v>
+      </c>
+      <c r="E86" s="1">
+        <v>36892</v>
+      </c>
+      <c r="G86" t="s">
+        <v>430</v>
+      </c>
+      <c r="H86" t="s">
+        <v>431</v>
+      </c>
+      <c r="I86" t="s">
+        <v>27</v>
+      </c>
+      <c r="J86" t="s">
+        <v>27</v>
+      </c>
+      <c r="K86" t="s">
+        <v>456</v>
+      </c>
+      <c r="L86">
+        <v>2000</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="N86" t="s">
+        <v>496</v>
+      </c>
+      <c r="O86" t="s">
+        <v>175</v>
+      </c>
+      <c r="P86" s="1">
+        <v>36526</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>36891</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>23</v>
+      </c>
+      <c r="B87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87" t="s">
+        <v>400</v>
+      </c>
+      <c r="D87" t="s">
+        <v>396</v>
+      </c>
+      <c r="E87" s="1">
+        <v>36526</v>
+      </c>
+      <c r="G87" t="s">
+        <v>432</v>
+      </c>
+      <c r="H87" t="s">
+        <v>433</v>
+      </c>
+      <c r="I87" t="s">
+        <v>27</v>
+      </c>
+      <c r="J87" t="s">
+        <v>27</v>
+      </c>
+      <c r="K87" t="s">
+        <v>457</v>
+      </c>
+      <c r="L87">
+        <v>1999</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="N87" t="s">
+        <v>497</v>
+      </c>
+      <c r="O87" t="s">
+        <v>175</v>
+      </c>
+      <c r="P87" s="1">
+        <v>36161</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>36525</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>24</v>
+      </c>
+      <c r="B88" t="s">
+        <v>136</v>
+      </c>
+      <c r="C88" t="s">
+        <v>401</v>
+      </c>
+      <c r="D88" t="s">
+        <v>396</v>
+      </c>
+      <c r="E88" s="1">
+        <v>37622</v>
+      </c>
+      <c r="G88" t="s">
+        <v>434</v>
+      </c>
+      <c r="H88" t="s">
+        <v>435</v>
+      </c>
+      <c r="I88" t="s">
+        <v>27</v>
+      </c>
+      <c r="J88" t="s">
+        <v>27</v>
+      </c>
+      <c r="K88" t="s">
+        <v>458</v>
+      </c>
+      <c r="L88">
+        <v>2002</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="N88" t="s">
+        <v>498</v>
+      </c>
+      <c r="O88" t="s">
+        <v>175</v>
+      </c>
+      <c r="P88" s="1">
+        <v>37257</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>37621</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>24</v>
+      </c>
+      <c r="B89" t="s">
+        <v>136</v>
+      </c>
+      <c r="C89" t="s">
+        <v>401</v>
+      </c>
+      <c r="D89" t="s">
+        <v>396</v>
+      </c>
+      <c r="E89" s="1">
+        <v>37257</v>
+      </c>
+      <c r="G89" t="s">
+        <v>436</v>
+      </c>
+      <c r="H89" t="s">
+        <v>437</v>
+      </c>
+      <c r="I89" t="s">
+        <v>27</v>
+      </c>
+      <c r="J89" t="s">
+        <v>27</v>
+      </c>
+      <c r="K89" t="s">
+        <v>459</v>
+      </c>
+      <c r="L89">
+        <v>2001</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="N89" t="s">
+        <v>499</v>
+      </c>
+      <c r="O89" t="s">
+        <v>175</v>
+      </c>
+      <c r="P89" s="1">
+        <v>36892</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>37256</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>24</v>
+      </c>
+      <c r="B90" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" t="s">
+        <v>401</v>
+      </c>
+      <c r="D90" t="s">
+        <v>396</v>
+      </c>
+      <c r="E90" s="1">
+        <v>36892</v>
+      </c>
+      <c r="G90" t="s">
+        <v>438</v>
+      </c>
+      <c r="H90" t="s">
+        <v>439</v>
+      </c>
+      <c r="I90" t="s">
+        <v>27</v>
+      </c>
+      <c r="J90" t="s">
+        <v>27</v>
+      </c>
+      <c r="K90" t="s">
+        <v>460</v>
+      </c>
+      <c r="L90">
+        <v>2000</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="N90" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="O90" t="s">
+        <v>175</v>
+      </c>
+      <c r="P90" s="1">
+        <v>36526</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>36891</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>24</v>
+      </c>
+      <c r="B91" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" t="s">
+        <v>401</v>
+      </c>
+      <c r="D91" t="s">
+        <v>396</v>
+      </c>
+      <c r="E91" s="1">
+        <v>36526</v>
+      </c>
+      <c r="G91" t="s">
+        <v>440</v>
+      </c>
+      <c r="H91" t="s">
+        <v>441</v>
+      </c>
+      <c r="I91" t="s">
+        <v>27</v>
+      </c>
+      <c r="J91" t="s">
+        <v>27</v>
+      </c>
+      <c r="K91" t="s">
+        <v>461</v>
+      </c>
+      <c r="L91">
+        <v>1999</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="N91" t="s">
+        <v>501</v>
+      </c>
+      <c r="O91" t="s">
+        <v>175</v>
+      </c>
+      <c r="P91" s="1">
+        <v>36161</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>36525</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>25</v>
+      </c>
+      <c r="B92" t="s">
+        <v>136</v>
+      </c>
+      <c r="C92" t="s">
+        <v>503</v>
+      </c>
+      <c r="D92" t="s">
+        <v>502</v>
+      </c>
+      <c r="E92" s="1">
+        <v>42735</v>
+      </c>
+      <c r="G92" t="s">
+        <v>514</v>
+      </c>
+      <c r="H92" t="s">
+        <v>515</v>
+      </c>
+      <c r="I92" t="s">
+        <v>546</v>
+      </c>
+      <c r="J92" t="s">
+        <v>546</v>
+      </c>
+      <c r="K92" t="s">
+        <v>547</v>
+      </c>
+      <c r="L92">
+        <v>2016</v>
+      </c>
+      <c r="M92" s="2" t="str">
+        <f>Tabell1[[#This Row],[forklaring]]</f>
+        <v>Statistiken belyser pensionssparande inom premiepensionssystemet, den 31 december.</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="O92" t="s">
+        <v>22</v>
+      </c>
+      <c r="P92" s="1">
+        <v>42735</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>42735</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>25</v>
+      </c>
+      <c r="B93" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93" t="s">
+        <v>503</v>
+      </c>
+      <c r="D93" t="s">
+        <v>502</v>
+      </c>
+      <c r="E93" s="1">
+        <v>42369</v>
+      </c>
+      <c r="G93" t="s">
+        <v>516</v>
+      </c>
+      <c r="H93" t="s">
+        <v>517</v>
+      </c>
+      <c r="I93" t="s">
+        <v>546</v>
+      </c>
+      <c r="J93" t="s">
+        <v>546</v>
+      </c>
+      <c r="K93" t="s">
+        <v>548</v>
+      </c>
+      <c r="L93">
+        <v>2015</v>
+      </c>
+      <c r="M93" s="2" t="str">
+        <f>Tabell1[[#This Row],[forklaring]]</f>
+        <v>Statistiken belyser pensionssparande inom premiepensionssystemet, den 31 december.</v>
+      </c>
+      <c r="N93" t="s">
+        <v>564</v>
+      </c>
+      <c r="O93" t="s">
+        <v>22</v>
+      </c>
+      <c r="P93" s="1">
+        <v>42369</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>42369</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>25</v>
+      </c>
+      <c r="B94" t="s">
+        <v>136</v>
+      </c>
+      <c r="C94" t="s">
+        <v>503</v>
+      </c>
+      <c r="D94" t="s">
+        <v>502</v>
+      </c>
+      <c r="E94" s="1">
+        <v>42004</v>
+      </c>
+      <c r="G94" t="s">
+        <v>518</v>
+      </c>
+      <c r="H94" t="s">
+        <v>519</v>
+      </c>
+      <c r="I94" t="s">
+        <v>546</v>
+      </c>
+      <c r="J94" t="s">
+        <v>546</v>
+      </c>
+      <c r="K94" t="s">
+        <v>549</v>
+      </c>
+      <c r="L94">
+        <v>2014</v>
+      </c>
+      <c r="M94" s="2" t="str">
+        <f>Tabell1[[#This Row],[forklaring]]</f>
+        <v>Statistiken belyser pensionssparande inom premiepensionssystemet, den 31 december.</v>
+      </c>
+      <c r="N94" t="s">
+        <v>565</v>
+      </c>
+      <c r="O94" t="s">
+        <v>22</v>
+      </c>
+      <c r="P94" s="1">
+        <v>42004</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>42004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>25</v>
+      </c>
+      <c r="B95" t="s">
+        <v>136</v>
+      </c>
+      <c r="C95" t="s">
+        <v>503</v>
+      </c>
+      <c r="D95" t="s">
+        <v>502</v>
+      </c>
+      <c r="E95" s="1">
+        <v>41639</v>
+      </c>
+      <c r="G95" t="s">
+        <v>520</v>
+      </c>
+      <c r="H95" t="s">
+        <v>521</v>
+      </c>
+      <c r="I95" t="s">
+        <v>546</v>
+      </c>
+      <c r="J95" t="s">
+        <v>546</v>
+      </c>
+      <c r="K95" t="s">
+        <v>550</v>
+      </c>
+      <c r="L95">
+        <v>2013</v>
+      </c>
+      <c r="M95" s="2" t="str">
+        <f>Tabell1[[#This Row],[forklaring]]</f>
+        <v>Statistiken belyser pensionssparande inom premiepensionssystemet, den 31 december.</v>
+      </c>
+      <c r="N95" t="s">
+        <v>566</v>
+      </c>
+      <c r="O95" t="s">
+        <v>22</v>
+      </c>
+      <c r="P95" s="1">
+        <v>41639</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>41639</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>25</v>
+      </c>
+      <c r="B96" t="s">
+        <v>136</v>
+      </c>
+      <c r="C96" t="s">
+        <v>503</v>
+      </c>
+      <c r="D96" t="s">
+        <v>502</v>
+      </c>
+      <c r="E96" s="1">
+        <v>41274</v>
+      </c>
+      <c r="G96" t="s">
+        <v>522</v>
+      </c>
+      <c r="H96" t="s">
+        <v>523</v>
+      </c>
+      <c r="I96" t="s">
+        <v>546</v>
+      </c>
+      <c r="J96" t="s">
+        <v>546</v>
+      </c>
+      <c r="K96" t="s">
+        <v>551</v>
+      </c>
+      <c r="L96">
+        <v>2012</v>
+      </c>
+      <c r="M96" s="2" t="str">
+        <f>Tabell1[[#This Row],[forklaring]]</f>
+        <v>Statistiken belyser pensionssparande inom premiepensionssystemet, den 31 december.</v>
+      </c>
+      <c r="N96" t="s">
+        <v>567</v>
+      </c>
+      <c r="O96" t="s">
+        <v>22</v>
+      </c>
+      <c r="P96" s="1">
+        <v>41274</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>41274</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>25</v>
+      </c>
+      <c r="B97" t="s">
+        <v>136</v>
+      </c>
+      <c r="C97" t="s">
+        <v>503</v>
+      </c>
+      <c r="D97" t="s">
+        <v>502</v>
+      </c>
+      <c r="E97" s="1">
+        <v>40908</v>
+      </c>
+      <c r="G97" t="s">
+        <v>524</v>
+      </c>
+      <c r="H97" t="s">
+        <v>525</v>
+      </c>
+      <c r="I97" t="s">
+        <v>546</v>
+      </c>
+      <c r="J97" t="s">
+        <v>546</v>
+      </c>
+      <c r="K97" t="s">
+        <v>552</v>
+      </c>
+      <c r="L97">
+        <v>2011</v>
+      </c>
+      <c r="M97" s="2" t="str">
+        <f>Tabell1[[#This Row],[forklaring]]</f>
+        <v>Statistiken belyser pensionssparande inom premiepensionssystemet, den 31 december.</v>
+      </c>
+      <c r="N97" t="s">
+        <v>568</v>
+      </c>
+      <c r="O97" t="s">
+        <v>22</v>
+      </c>
+      <c r="P97" s="1">
+        <v>40908</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>40908</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>25</v>
+      </c>
+      <c r="B98" t="s">
+        <v>136</v>
+      </c>
+      <c r="C98" t="s">
+        <v>503</v>
+      </c>
+      <c r="D98" t="s">
+        <v>502</v>
+      </c>
+      <c r="E98" s="1">
+        <v>40543</v>
+      </c>
+      <c r="G98" t="s">
+        <v>526</v>
+      </c>
+      <c r="H98" t="s">
+        <v>527</v>
+      </c>
+      <c r="I98" t="s">
+        <v>546</v>
+      </c>
+      <c r="J98" t="s">
+        <v>546</v>
+      </c>
+      <c r="K98" t="s">
+        <v>553</v>
+      </c>
+      <c r="L98">
+        <v>2010</v>
+      </c>
+      <c r="M98" s="2" t="str">
+        <f>Tabell1[[#This Row],[forklaring]]</f>
+        <v>Statistiken belyser pensionssparande inom premiepensionssystemet, den 31 december.</v>
+      </c>
+      <c r="N98" t="s">
+        <v>569</v>
+      </c>
+      <c r="O98" t="s">
+        <v>22</v>
+      </c>
+      <c r="P98" s="1">
+        <v>40543</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>40543</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>25</v>
+      </c>
+      <c r="B99" t="s">
+        <v>136</v>
+      </c>
+      <c r="C99" t="s">
+        <v>503</v>
+      </c>
+      <c r="D99" t="s">
+        <v>502</v>
+      </c>
+      <c r="E99" s="1">
+        <v>40178</v>
+      </c>
+      <c r="G99" t="s">
+        <v>528</v>
+      </c>
+      <c r="H99" t="s">
+        <v>529</v>
+      </c>
+      <c r="I99" t="s">
+        <v>546</v>
+      </c>
+      <c r="J99" t="s">
+        <v>546</v>
+      </c>
+      <c r="K99" t="s">
+        <v>554</v>
+      </c>
+      <c r="L99">
+        <v>2009</v>
+      </c>
+      <c r="M99" s="2" t="str">
+        <f>Tabell1[[#This Row],[forklaring]]</f>
+        <v>Statistiken belyser pensionssparande inom premiepensionssystemet, den 31 december.</v>
+      </c>
+      <c r="N99" t="s">
+        <v>570</v>
+      </c>
+      <c r="O99" t="s">
+        <v>22</v>
+      </c>
+      <c r="P99" s="1">
+        <v>40178</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>40178</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>26</v>
+      </c>
+      <c r="B100" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100" t="s">
+        <v>504</v>
+      </c>
+      <c r="D100" t="s">
+        <v>505</v>
+      </c>
+      <c r="E100" s="1">
+        <v>42871</v>
+      </c>
+      <c r="G100" t="s">
+        <v>530</v>
+      </c>
+      <c r="H100" t="s">
+        <v>531</v>
+      </c>
+      <c r="I100" t="s">
+        <v>546</v>
+      </c>
+      <c r="J100" t="s">
+        <v>546</v>
+      </c>
+      <c r="K100" t="s">
+        <v>555</v>
+      </c>
+      <c r="L100" t="s">
+        <v>177</v>
+      </c>
+      <c r="M100" s="2" t="str">
+        <f>Tabell1[[#This Row],[forklaring]]</f>
+        <v>Lista med alla fonder som finns i Pensionsmyndighetens fondutbud och även alla som funnits i Premiepensionsmyndighetens utbud.</v>
+      </c>
+      <c r="N100" t="s">
+        <v>571</v>
+      </c>
+      <c r="O100" t="s">
+        <v>175</v>
+      </c>
+      <c r="P100" s="1">
+        <v>39814</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>42871</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>27</v>
+      </c>
+      <c r="B101" t="s">
+        <v>136</v>
+      </c>
+      <c r="C101" t="s">
+        <v>507</v>
+      </c>
+      <c r="D101" t="s">
+        <v>506</v>
+      </c>
+      <c r="E101" s="1">
+        <v>42871</v>
+      </c>
+      <c r="G101" t="s">
+        <v>532</v>
+      </c>
+      <c r="H101" t="s">
+        <v>533</v>
+      </c>
+      <c r="I101" t="s">
+        <v>546</v>
+      </c>
+      <c r="J101" t="s">
+        <v>546</v>
+      </c>
+      <c r="K101" t="s">
+        <v>556</v>
+      </c>
+      <c r="L101" t="s">
+        <v>177</v>
+      </c>
+      <c r="M101" s="2" t="str">
+        <f>Tabell1[[#This Row],[forklaring]]</f>
+        <v>Här finner du en lista med värdeutvecklingen per fond för de senaste två åren och innevarande år samt genomsnittlig värdeutveckling för de senaste fem åren.</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="O101" t="s">
+        <v>574</v>
+      </c>
+      <c r="P101" s="1">
+        <v>39814</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>42871</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>27</v>
+      </c>
+      <c r="B102" t="s">
+        <v>136</v>
+      </c>
+      <c r="C102" t="s">
+        <v>507</v>
+      </c>
+      <c r="D102" t="s">
+        <v>506</v>
+      </c>
+      <c r="E102" s="1">
+        <v>42871</v>
+      </c>
+      <c r="G102" t="s">
+        <v>534</v>
+      </c>
+      <c r="H102" t="s">
+        <v>535</v>
+      </c>
+      <c r="I102" t="s">
+        <v>546</v>
+      </c>
+      <c r="J102" t="s">
+        <v>546</v>
+      </c>
+      <c r="K102" t="s">
+        <v>557</v>
+      </c>
+      <c r="L102" t="s">
+        <v>177</v>
+      </c>
+      <c r="M102" s="2" t="str">
+        <f>Tabell1[[#This Row],[forklaring]]</f>
+        <v>Här finner du en lista med värdeutvecklingen per fond för de senaste två åren och innevarande år samt genomsnittlig värdeutveckling för de senaste fem åren.</v>
+      </c>
+      <c r="N102" t="s">
+        <v>573</v>
+      </c>
+      <c r="O102" t="s">
+        <v>575</v>
+      </c>
+      <c r="P102" s="1">
+        <v>39814</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>42871</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>28</v>
+      </c>
+      <c r="B103" t="s">
+        <v>136</v>
+      </c>
+      <c r="C103" t="s">
+        <v>508</v>
+      </c>
+      <c r="D103" t="s">
+        <v>510</v>
+      </c>
+      <c r="E103" s="1">
+        <v>42871</v>
+      </c>
+      <c r="G103" t="s">
+        <v>536</v>
+      </c>
+      <c r="H103" t="s">
+        <v>537</v>
+      </c>
+      <c r="I103" t="s">
+        <v>546</v>
+      </c>
+      <c r="J103" t="s">
+        <v>546</v>
+      </c>
+      <c r="K103" t="s">
+        <v>558</v>
+      </c>
+      <c r="L103" t="s">
+        <v>177</v>
+      </c>
+      <c r="M103" s="2" t="str">
+        <f>Tabell1[[#This Row],[forklaring]]</f>
+        <v>Förutom att hitta fondernas köp- och säljkurser på respektive fondfaktasida (du hittar fondfaktasidorna under Sök fonder) kan du även se dem här sammanfattade i listformat.</v>
+      </c>
+      <c r="N103" t="s">
+        <v>576</v>
+      </c>
+      <c r="O103" t="s">
+        <v>574</v>
+      </c>
+      <c r="P103" s="1">
+        <v>39814</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>42871</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>28</v>
+      </c>
+      <c r="B104" t="s">
+        <v>136</v>
+      </c>
+      <c r="C104" t="s">
+        <v>508</v>
+      </c>
+      <c r="D104" t="s">
+        <v>510</v>
+      </c>
+      <c r="E104" s="1">
+        <v>42871</v>
+      </c>
+      <c r="G104" t="s">
+        <v>538</v>
+      </c>
+      <c r="H104" t="s">
+        <v>539</v>
+      </c>
+      <c r="I104" t="s">
+        <v>546</v>
+      </c>
+      <c r="J104" t="s">
+        <v>546</v>
+      </c>
+      <c r="K104" t="s">
+        <v>559</v>
+      </c>
+      <c r="L104" t="s">
+        <v>177</v>
+      </c>
+      <c r="M104" s="2" t="str">
+        <f>Tabell1[[#This Row],[forklaring]]</f>
+        <v>Förutom att hitta fondernas köp- och säljkurser på respektive fondfaktasida (du hittar fondfaktasidorna under Sök fonder) kan du även se dem här sammanfattade i listformat.</v>
+      </c>
+      <c r="N104" t="s">
+        <v>577</v>
+      </c>
+      <c r="O104" t="s">
+        <v>575</v>
+      </c>
+      <c r="P104" s="1">
+        <v>39814</v>
+      </c>
+      <c r="Q104" s="1">
+        <v>42871</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>29</v>
+      </c>
+      <c r="B105" t="s">
+        <v>137</v>
+      </c>
+      <c r="C105" t="s">
+        <v>509</v>
+      </c>
+      <c r="D105" t="s">
+        <v>511</v>
+      </c>
+      <c r="E105" s="1">
+        <v>42871</v>
+      </c>
+      <c r="G105" t="s">
+        <v>540</v>
+      </c>
+      <c r="H105" t="s">
+        <v>541</v>
+      </c>
+      <c r="I105" t="s">
+        <v>546</v>
+      </c>
+      <c r="J105" t="s">
+        <v>546</v>
+      </c>
+      <c r="K105" t="s">
+        <v>560</v>
+      </c>
+      <c r="L105" t="s">
+        <v>177</v>
+      </c>
+      <c r="M105" s="2" t="str">
+        <f>Tabell1[[#This Row],[forklaring]]</f>
+        <v>En utdelning innebär att en del av en fonds värde delas ut till andelsägarna i fonden. Fonder ger normalt utdelning en gång per år,  antingen som nya andelar eller som kontant utbetalning.</v>
+      </c>
+      <c r="N105" t="s">
+        <v>578</v>
+      </c>
+      <c r="O105" t="s">
+        <v>175</v>
+      </c>
+      <c r="P105" s="1">
+        <v>39814</v>
+      </c>
+      <c r="Q105" s="1">
+        <v>42871</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>30</v>
+      </c>
+      <c r="B106" t="s">
+        <v>136</v>
+      </c>
+      <c r="C106" t="s">
+        <v>512</v>
+      </c>
+      <c r="D106" t="s">
+        <v>513</v>
+      </c>
+      <c r="E106" s="1">
+        <v>42871</v>
+      </c>
+      <c r="G106" t="s">
+        <v>542</v>
+      </c>
+      <c r="H106" t="s">
+        <v>543</v>
+      </c>
+      <c r="I106" t="s">
+        <v>546</v>
+      </c>
+      <c r="J106" t="s">
+        <v>546</v>
+      </c>
+      <c r="K106" t="s">
+        <v>561</v>
+      </c>
+      <c r="L106" t="s">
+        <v>581</v>
+      </c>
+      <c r="M106" s="2" t="str">
+        <f>Tabell1[[#This Row],[forklaring]]</f>
+        <v>Här hittar du listor för fondkurser tidigare år med början 2000.</v>
+      </c>
+      <c r="N106" t="s">
+        <v>579</v>
+      </c>
+      <c r="O106" t="s">
+        <v>22</v>
+      </c>
+      <c r="P106" s="1">
+        <v>42736</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>42871</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>30</v>
+      </c>
+      <c r="B107" t="s">
+        <v>136</v>
+      </c>
+      <c r="C107" t="s">
+        <v>512</v>
+      </c>
+      <c r="D107" t="s">
+        <v>513</v>
+      </c>
+      <c r="E107" s="1">
+        <v>42871</v>
+      </c>
+      <c r="G107" t="s">
+        <v>544</v>
+      </c>
+      <c r="H107" t="s">
+        <v>545</v>
+      </c>
+      <c r="I107" t="s">
+        <v>546</v>
+      </c>
+      <c r="J107" t="s">
+        <v>546</v>
+      </c>
+      <c r="K107" t="s">
+        <v>562</v>
+      </c>
+      <c r="L107" t="s">
+        <v>582</v>
+      </c>
+      <c r="M107" s="2" t="str">
+        <f>Tabell1[[#This Row],[forklaring]]</f>
+        <v>Här hittar du listor för fondkurser tidigare år med början 2000.</v>
+      </c>
+      <c r="N107" t="s">
+        <v>580</v>
+      </c>
+      <c r="O107" t="s">
+        <v>22</v>
+      </c>
+      <c r="P107" s="1">
+        <v>42370</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>42735</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N58"/>
+    <hyperlink ref="N59"/>
+    <hyperlink ref="N61"/>
+    <hyperlink ref="N60"/>
+    <hyperlink ref="N64"/>
+    <hyperlink ref="N90" r:id="rId1"/>
+    <hyperlink ref="N92" r:id="rId2"/>
+    <hyperlink ref="N101" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>